--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DBE787-62D8-4D09-A147-CBB4030D7FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B98E23-37C1-48CF-8289-CC89C3B965D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
+    <sheet name="seedStock" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -108,16 +111,268 @@
     <t>Total</t>
   </si>
   <si>
-    <t>YH 081319</t>
-  </si>
-  <si>
     <t>YH 081113</t>
   </si>
   <si>
-    <t>YH 081319; BA 102519</t>
-  </si>
-  <si>
-    <t>BA 102519</t>
+    <t>BA 2020-01-17</t>
+  </si>
+  <si>
+    <t>YH 2019-08-13; BA 2020-01-17</t>
+  </si>
+  <si>
+    <t>YH 2019-08-13</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Seed count</t>
+  </si>
+  <si>
+    <t>Tournefortii</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Altissima</t>
+  </si>
+  <si>
+    <t>SALT 018</t>
+  </si>
+  <si>
+    <t>STOU 016</t>
+  </si>
+  <si>
+    <t>&gt;50</t>
+  </si>
+  <si>
+    <t>Barbata</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Racemosa SC</t>
+  </si>
+  <si>
+    <t>Racemosa MS</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Havenesis</t>
+  </si>
+  <si>
+    <t>SHAV 020</t>
+  </si>
+  <si>
+    <t>Leonardii</t>
+  </si>
+  <si>
+    <t>Indica var. coccinea</t>
+  </si>
+  <si>
+    <t>SIND 013</t>
+  </si>
+  <si>
+    <t>SS27</t>
+  </si>
+  <si>
+    <t>SS26</t>
+  </si>
+  <si>
+    <t>Baicalensis</t>
+  </si>
+  <si>
+    <t>Arenicola</t>
+  </si>
+  <si>
+    <t>SARE 021</t>
+  </si>
+  <si>
+    <t>SB 001</t>
+  </si>
+  <si>
+    <t>Hastifolia</t>
+  </si>
+  <si>
+    <t>SHAS 017</t>
+  </si>
+  <si>
+    <t>Alpina</t>
+  </si>
+  <si>
+    <t>SALP 019</t>
+  </si>
+  <si>
+    <t>SLEO 011</t>
+  </si>
+  <si>
+    <t>Prairie moon nursery</t>
+  </si>
+  <si>
+    <t>SLEO 006</t>
+  </si>
+  <si>
+    <t>Ovata</t>
+  </si>
+  <si>
+    <t>SOVA 005</t>
+  </si>
+  <si>
+    <t>Incana</t>
+  </si>
+  <si>
+    <t>SINC 004</t>
+  </si>
+  <si>
+    <t>Galericulata</t>
+  </si>
+  <si>
+    <t>SGAL 007</t>
+  </si>
+  <si>
+    <t>Integrifolia</t>
+  </si>
+  <si>
+    <t>SINT 008</t>
+  </si>
+  <si>
+    <t>Ovata ssp bracteata</t>
+  </si>
+  <si>
+    <t>SOVA 009</t>
+  </si>
+  <si>
+    <t>sharonsflorida.com</t>
+  </si>
+  <si>
+    <t>SGAL 012</t>
+  </si>
+  <si>
+    <t>SS 15</t>
+  </si>
+  <si>
+    <t>SS 16</t>
+  </si>
+  <si>
+    <t>SBIC 022</t>
+  </si>
+  <si>
+    <t>Lateriflora</t>
+  </si>
+  <si>
+    <t>SLAT 010</t>
+  </si>
+  <si>
+    <t>ndgbotanicals.com</t>
+  </si>
+  <si>
+    <t>SLAT 003-1</t>
+  </si>
+  <si>
+    <t>frozenseeds.com</t>
+  </si>
+  <si>
+    <t>SLAT003-2</t>
+  </si>
+  <si>
+    <t>SBAR 002</t>
+  </si>
+  <si>
+    <t>Huaihai garden (China)</t>
+  </si>
+  <si>
+    <t>SBAR 023</t>
+  </si>
+  <si>
+    <t>plantswithapurpose.net</t>
+  </si>
+  <si>
+    <t>herbarium</t>
+  </si>
+  <si>
+    <t>galericulata</t>
+  </si>
+  <si>
+    <t>lateriflora</t>
+  </si>
+  <si>
+    <t>sapphirina</t>
+  </si>
+  <si>
+    <t>ovata</t>
+  </si>
+  <si>
+    <t>parvula</t>
+  </si>
+  <si>
+    <t>serrata</t>
+  </si>
+  <si>
+    <t>tessellata</t>
+  </si>
+  <si>
+    <t>alpina</t>
+  </si>
+  <si>
+    <t>astinae</t>
+  </si>
+  <si>
+    <t>epilobiifolia</t>
+  </si>
+  <si>
+    <t>holmgreniorum</t>
+  </si>
+  <si>
+    <t>lutilaba</t>
+  </si>
+  <si>
+    <t>potosina</t>
+  </si>
+  <si>
+    <t>resinosa</t>
+  </si>
+  <si>
+    <t>siphocampuloides</t>
+  </si>
+  <si>
+    <t>coerulea</t>
+  </si>
+  <si>
+    <t>costaricana</t>
+  </si>
+  <si>
+    <t>formosa</t>
+  </si>
+  <si>
+    <t>hookeri</t>
+  </si>
+  <si>
+    <t>isocheila</t>
+  </si>
+  <si>
+    <t>longifolia</t>
+  </si>
+  <si>
+    <t>microphylla</t>
+  </si>
+  <si>
+    <t>splendens</t>
+  </si>
+  <si>
+    <t>orientalis</t>
+  </si>
+  <si>
+    <t>pulchella</t>
+  </si>
+  <si>
+    <t>fructicosa</t>
   </si>
 </sst>
 </file>
@@ -161,11 +416,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B26A3BC-753B-4215-92EB-E0126892F519}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,12 +756,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -548,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -596,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -812,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -932,7 +1191,147 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -941,4 +1340,544 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43565</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43779</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43686</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43656</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43565</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43405</v>
+      </c>
+      <c r="D22" s="4">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43580</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43565</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43403</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43588</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43656</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43592</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43739</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43656</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43592</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+    <sortCondition ref="A2:A39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B98E23-37C1-48CF-8289-CC89C3B965D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FCEF6-6992-4779-A3F3-532E657A4E7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>YH 2019-08-13</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Seed count</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>frozenseeds.com</t>
   </si>
   <si>
-    <t>SLAT003-2</t>
-  </si>
-  <si>
     <t>SBAR 002</t>
   </si>
   <si>
@@ -373,6 +367,123 @@
   </si>
   <si>
     <t>fructicosa</t>
+  </si>
+  <si>
+    <t>SLAT 003-2</t>
+  </si>
+  <si>
+    <t>Old code</t>
+  </si>
+  <si>
+    <t>New code</t>
+  </si>
+  <si>
+    <t>ALP 000</t>
+  </si>
+  <si>
+    <t>GAL 000</t>
+  </si>
+  <si>
+    <t>HAS 000</t>
+  </si>
+  <si>
+    <t>ALT 000</t>
+  </si>
+  <si>
+    <t>ARE 000</t>
+  </si>
+  <si>
+    <t>BAR 000</t>
+  </si>
+  <si>
+    <t>HAV 000</t>
+  </si>
+  <si>
+    <t>INC 000</t>
+  </si>
+  <si>
+    <t>IND 000</t>
+  </si>
+  <si>
+    <t>INT 000</t>
+  </si>
+  <si>
+    <t>LAT 000</t>
+  </si>
+  <si>
+    <t>BAI 000</t>
+  </si>
+  <si>
+    <t>BAI 001</t>
+  </si>
+  <si>
+    <t>BAI 002</t>
+  </si>
+  <si>
+    <t>BAR 002</t>
+  </si>
+  <si>
+    <t>BAR 001</t>
+  </si>
+  <si>
+    <t>GAL 001</t>
+  </si>
+  <si>
+    <t>HAS 001</t>
+  </si>
+  <si>
+    <t>BAR 003</t>
+  </si>
+  <si>
+    <t>LAT 003</t>
+  </si>
+  <si>
+    <t>BAR 004</t>
+  </si>
+  <si>
+    <t>BAR 005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAT 001 </t>
+  </si>
+  <si>
+    <t>LAT 002</t>
+  </si>
+  <si>
+    <t>LEO 000</t>
+  </si>
+  <si>
+    <t>LEO 001</t>
+  </si>
+  <si>
+    <t>LEO 002</t>
+  </si>
+  <si>
+    <t>OVA 000</t>
+  </si>
+  <si>
+    <t>OVA 001</t>
+  </si>
+  <si>
+    <t>RAC-MS 000</t>
+  </si>
+  <si>
+    <t>RAC-MS 001</t>
+  </si>
+  <si>
+    <t>RAC-MS 002</t>
+  </si>
+  <si>
+    <t>RAC-MS 003</t>
+  </si>
+  <si>
+    <t>RAC-SC 000</t>
+  </si>
+  <si>
+    <t>RAC-SC 001</t>
+  </si>
+  <si>
+    <t>TOU 000</t>
   </si>
 </sst>
 </file>
@@ -420,11 +531,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,12 +867,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -1196,7 +1307,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,132 +1317,132 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1344,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,520 +1469,631 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43565</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43779</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43686</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43565</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43405</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43580</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43565</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43403</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43588</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43592</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43739</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43592</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43565</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43779</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43686</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2">
-        <v>43656</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="2">
-        <v>43409</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43565</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="4">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2">
-        <v>43411</v>
-      </c>
-      <c r="D20" s="4">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2">
-        <v>43405</v>
-      </c>
-      <c r="D22" s="4">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43580</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2">
-        <v>43565</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2">
-        <v>43409</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2">
-        <v>43403</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2">
-        <v>43588</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="2">
-        <v>43656</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="2">
-        <v>43592</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2">
-        <v>43739</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="2">
-        <v>43656</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="2">
-        <v>43592</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="E38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>37</v>
+      <c r="E39" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97FCEF6-6992-4779-A3F3-532E657A4E7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9B322-39DB-4B68-A980-96D0C0B9BE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Havenesis</t>
-  </si>
-  <si>
     <t>SHAV 020</t>
   </si>
   <si>
@@ -484,6 +481,57 @@
   </si>
   <si>
     <t>TOU 000</t>
+  </si>
+  <si>
+    <t>Havanesis</t>
+  </si>
+  <si>
+    <t>ALP 001</t>
+  </si>
+  <si>
+    <t>ALP 002</t>
+  </si>
+  <si>
+    <t>ALP 003</t>
+  </si>
+  <si>
+    <t>plant-world-seeds.com</t>
+  </si>
+  <si>
+    <t>HAV 001</t>
+  </si>
+  <si>
+    <t>HAV 002</t>
+  </si>
+  <si>
+    <t>HAV 003</t>
+  </si>
+  <si>
+    <t>HAS 002</t>
+  </si>
+  <si>
+    <t>HAS 003</t>
+  </si>
+  <si>
+    <t>HAS 004</t>
+  </si>
+  <si>
+    <t>TOU 001</t>
+  </si>
+  <si>
+    <t>TOU 002</t>
+  </si>
+  <si>
+    <t>TOU 003</t>
+  </si>
+  <si>
+    <t>ALT 001</t>
+  </si>
+  <si>
+    <t>ALT 002</t>
+  </si>
+  <si>
+    <t>ALT 003</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1355,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1317,132 +1365,132 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1455,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
@@ -1491,13 +1539,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -1508,61 +1556,67 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>150</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>151</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>152</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43868</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1570,535 +1624,784 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2">
-        <v>43565</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
+        <v>43868</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="D8" s="2">
-        <v>43779</v>
+        <v>43868</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2">
-        <v>43686</v>
+        <v>43868</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
+        <v>124</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>125</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2">
-        <v>43656</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>43565</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43779</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2">
-        <v>43409</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
+        <v>43686</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="2">
-        <v>43565</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="3">
-        <v>50</v>
+        <v>133</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="3">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
+        <v>134</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43411</v>
+        <v>114</v>
       </c>
       <c r="E20" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>129</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43405</v>
+        <v>115</v>
       </c>
       <c r="E22" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
+        <v>130</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43565</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>157</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2">
-        <v>43580</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>43868</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2">
-        <v>43565</v>
+        <v>43868</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43409</v>
+        <v>119</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>154</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43868</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43868</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D30" s="2">
-        <v>43403</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>36</v>
+        <v>43868</v>
+      </c>
+      <c r="E30" s="3">
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="2">
-        <v>43588</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>36</v>
+        <v>120</v>
+      </c>
+      <c r="E31" s="3">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2">
-        <v>43656</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>36</v>
+        <v>43411</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43592</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2">
-        <v>43739</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>36</v>
+        <v>43405</v>
+      </c>
+      <c r="E34" s="3">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="2">
-        <v>43656</v>
+        <v>135</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43592</v>
-      </c>
-      <c r="E36" s="3">
-        <v>4</v>
+        <v>136</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43580</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43565</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43403</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43588</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43592</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43739</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43592</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E50" s="3">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E51" s="3">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E52" s="3">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
-    <sortCondition ref="A2:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
+    <sortCondition ref="C2:C54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9B322-39DB-4B68-A980-96D0C0B9BE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E3236-494B-448F-BD43-D537B2E9DC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>barbata</t>
   </si>
   <si>
-    <t>tourmetti</t>
-  </si>
-  <si>
     <t>hastafolia</t>
   </si>
   <si>
@@ -532,6 +529,135 @@
   </si>
   <si>
     <t>ALT 003</t>
+  </si>
+  <si>
+    <t>tournefortii</t>
+  </si>
+  <si>
+    <t>angustifolia ssp. angustifolia</t>
+  </si>
+  <si>
+    <t>antirrhinoides</t>
+  </si>
+  <si>
+    <t>brittonii</t>
+  </si>
+  <si>
+    <t>californica</t>
+  </si>
+  <si>
+    <t>coccinea</t>
+  </si>
+  <si>
+    <t>drumondii</t>
+  </si>
+  <si>
+    <t>glabriuscula</t>
+  </si>
+  <si>
+    <t>havanensis</t>
+  </si>
+  <si>
+    <t>holmgrenierum</t>
+  </si>
+  <si>
+    <t>incana</t>
+  </si>
+  <si>
+    <t>multiglandulosa</t>
+  </si>
+  <si>
+    <t>muriculata</t>
+  </si>
+  <si>
+    <t>pseudoserrata</t>
+  </si>
+  <si>
+    <t>racemosa</t>
+  </si>
+  <si>
+    <t>blepharophylla</t>
+  </si>
+  <si>
+    <t>hispidula</t>
+  </si>
+  <si>
+    <t>guatemalensis</t>
+  </si>
+  <si>
+    <t>purpurascens</t>
+  </si>
+  <si>
+    <t>lutea</t>
+  </si>
+  <si>
+    <t>seleriana</t>
+  </si>
+  <si>
+    <t>suffrutscens</t>
+  </si>
+  <si>
+    <t>przewalskii</t>
+  </si>
+  <si>
+    <t>scordiifolia</t>
+  </si>
+  <si>
+    <t>discolor</t>
+  </si>
+  <si>
+    <t>multicularis</t>
+  </si>
+  <si>
+    <t>oblonga</t>
+  </si>
+  <si>
+    <t>heterophylla</t>
+  </si>
+  <si>
+    <t>heydei</t>
+  </si>
+  <si>
+    <t>javanica</t>
+  </si>
+  <si>
+    <t>pinnatifida</t>
+  </si>
+  <si>
+    <t>prostrata</t>
+  </si>
+  <si>
+    <t>peregrina</t>
+  </si>
+  <si>
+    <t>relenorskyi</t>
+  </si>
+  <si>
+    <t>angulosa</t>
+  </si>
+  <si>
+    <t>paucifolia</t>
+  </si>
+  <si>
+    <t>sumatrana</t>
+  </si>
+  <si>
+    <t>javalambrensis</t>
+  </si>
+  <si>
+    <t>leptosiplonsipkon</t>
+  </si>
+  <si>
+    <t>elliptica</t>
+  </si>
+  <si>
+    <t>integrifolia</t>
+  </si>
+  <si>
+    <t>herbarium (not yet analyzed)</t>
+  </si>
+  <si>
+    <t>angustifolia ssp. micranthum</t>
   </si>
 </sst>
 </file>
@@ -575,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -584,6 +710,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B26A3BC-753B-4215-92EB-E0126892F519}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +1052,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -958,15 +1087,12 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <f>SUM(B3:E3)</f>
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,15 +1108,12 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <f t="shared" ref="F4:F19" si="0">SUM(B4:E4)</f>
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,15 +1129,12 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1030,20 +1150,17 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1053,21 +1170,18 @@
       </c>
       <c r="D7">
         <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1077,21 +1191,18 @@
       </c>
       <c r="D8">
         <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1101,21 +1212,18 @@
       </c>
       <c r="D9">
         <v>3</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1125,21 +1233,18 @@
       </c>
       <c r="D10">
         <v>3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1149,21 +1254,18 @@
       </c>
       <c r="D11">
         <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1173,21 +1275,18 @@
       </c>
       <c r="D12">
         <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1197,21 +1296,18 @@
       </c>
       <c r="D13">
         <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1221,21 +1317,18 @@
       </c>
       <c r="D14">
         <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1245,21 +1338,18 @@
       </c>
       <c r="D15">
         <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1278,12 +1368,12 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1293,21 +1383,18 @@
       </c>
       <c r="D17">
         <v>3</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1326,12 +1413,12 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1350,147 +1437,626 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>SUM(B22:E22)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F48" si="1">SUM(B23:E23)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>109</v>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1498,6 +2064,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1505,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -1522,44 +2089,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2">
         <v>43868</v>
@@ -1568,15 +2135,15 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2">
         <v>43868</v>
@@ -1585,15 +2152,15 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2">
         <v>43868</v>
@@ -1602,100 +2169,100 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2">
         <v>43868</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2">
         <v>43868</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="2">
         <v>43868</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1703,27 +2270,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2">
         <v>43565</v>
@@ -1734,126 +2301,126 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2">
         <v>43779</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2">
         <v>43686</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2">
         <v>43656</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2">
         <v>43409</v>
@@ -1862,35 +2429,35 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2">
         <v>43565</v>
@@ -1901,10 +2468,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2">
         <v>43868</v>
@@ -1913,15 +2480,15 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="2">
         <v>43868</v>
@@ -1930,15 +2497,15 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="2">
         <v>43868</v>
@@ -1947,32 +2514,32 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="3">
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="2">
         <v>43868</v>
@@ -1981,15 +2548,15 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="2">
         <v>43868</v>
@@ -1998,15 +2565,15 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="2">
         <v>43868</v>
@@ -2015,35 +2582,35 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2">
         <v>43411</v>
@@ -2052,32 +2619,32 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2">
         <v>43405</v>
@@ -2086,63 +2653,63 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="2">
         <v>43580</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="2">
         <v>43565</v>
@@ -2153,13 +2720,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" s="2">
         <v>43409</v>
@@ -2168,100 +2735,100 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2">
         <v>43403</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="2">
         <v>43588</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2">
         <v>43656</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="2">
         <v>43592</v>
@@ -2272,41 +2839,41 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="2">
         <v>43739</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="2">
         <v>43656</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2">
         <v>43592</v>
@@ -2317,27 +2884,27 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="2">
         <v>43868</v>
@@ -2346,15 +2913,15 @@
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="2">
         <v>43868</v>
@@ -2363,15 +2930,15 @@
         <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2">
         <v>43868</v>
@@ -2380,23 +2947,23 @@
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E3236-494B-448F-BD43-D537B2E9DC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D77E65-5ABE-4287-B65D-F2AF67FA498B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
     <sheet name="seedStock" sheetId="2" r:id="rId2"/>
+    <sheet name="TableS1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +55,6 @@
     <t>Flower</t>
   </si>
   <si>
-    <t>havanesis</t>
-  </si>
-  <si>
     <t>arenicola</t>
   </si>
   <si>
@@ -66,9 +64,6 @@
     <t>barbata</t>
   </si>
   <si>
-    <t>hastafolia</t>
-  </si>
-  <si>
     <t>baicalensis</t>
   </si>
   <si>
@@ -87,9 +82,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>pekenesis var. alpina</t>
-  </si>
-  <si>
     <t>strigillosa</t>
   </si>
   <si>
@@ -658,13 +650,274 @@
   </si>
   <si>
     <t>angustifolia ssp. micranthum</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>Dried</t>
+  </si>
+  <si>
+    <t>hastifolia</t>
+  </si>
+  <si>
+    <t>pekenensis var. alpina</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Organ</t>
+  </si>
+  <si>
+    <t>Leaf, stem, root</t>
+  </si>
+  <si>
+    <t>Leaf, stem</t>
+  </si>
+  <si>
+    <t>S. alpina</t>
+  </si>
+  <si>
+    <t>S. altissima</t>
+  </si>
+  <si>
+    <t>S. angulosa</t>
+  </si>
+  <si>
+    <t>S. angustifolia ssp. angustifolia</t>
+  </si>
+  <si>
+    <t>S. angustifolia ssp. micrathum</t>
+  </si>
+  <si>
+    <t>S. antirrhinoides</t>
+  </si>
+  <si>
+    <t>S. arenicola</t>
+  </si>
+  <si>
+    <t>S. astinae</t>
+  </si>
+  <si>
+    <t>S. baicalensis</t>
+  </si>
+  <si>
+    <t>S. barbata</t>
+  </si>
+  <si>
+    <t>S. blepharophylla</t>
+  </si>
+  <si>
+    <t>S. brittonii</t>
+  </si>
+  <si>
+    <t>S. californica</t>
+  </si>
+  <si>
+    <t>S. coccinea</t>
+  </si>
+  <si>
+    <t>S. coerulea</t>
+  </si>
+  <si>
+    <t>S. costaricana</t>
+  </si>
+  <si>
+    <t>S. dependens</t>
+  </si>
+  <si>
+    <t>S. discolor</t>
+  </si>
+  <si>
+    <t>S. drumondii</t>
+  </si>
+  <si>
+    <t>S. elliptica</t>
+  </si>
+  <si>
+    <t>S. epilobiifolia</t>
+  </si>
+  <si>
+    <t>S. formosa</t>
+  </si>
+  <si>
+    <t>S. fructicosa</t>
+  </si>
+  <si>
+    <t>S. galericulata</t>
+  </si>
+  <si>
+    <t>S. glabriuscula</t>
+  </si>
+  <si>
+    <t>S. guatemalensis</t>
+  </si>
+  <si>
+    <t>S. hastifolia</t>
+  </si>
+  <si>
+    <t>S. havanensis</t>
+  </si>
+  <si>
+    <t>S. heterophylla</t>
+  </si>
+  <si>
+    <t>S. heydei</t>
+  </si>
+  <si>
+    <t>S. hispidula</t>
+  </si>
+  <si>
+    <t>S. holmgreniorum</t>
+  </si>
+  <si>
+    <t>S. hookeri</t>
+  </si>
+  <si>
+    <t>S. incanca</t>
+  </si>
+  <si>
+    <t>S. indica var. coccinea</t>
+  </si>
+  <si>
+    <t>S. insignis</t>
+  </si>
+  <si>
+    <t>S. integrifolia</t>
+  </si>
+  <si>
+    <t>S. isochelia</t>
+  </si>
+  <si>
+    <t>S. javalambrensis</t>
+  </si>
+  <si>
+    <t>S. javanica</t>
+  </si>
+  <si>
+    <t>S. lateriflora</t>
+  </si>
+  <si>
+    <t>S. leonardii</t>
+  </si>
+  <si>
+    <t>S. leptosiplonsipkon</t>
+  </si>
+  <si>
+    <t>S. longifolia</t>
+  </si>
+  <si>
+    <t>S. lutea</t>
+  </si>
+  <si>
+    <t>S. lutilaba</t>
+  </si>
+  <si>
+    <t>S. microphylla</t>
+  </si>
+  <si>
+    <t>S. multicularis</t>
+  </si>
+  <si>
+    <t>S. multiglandulosa</t>
+  </si>
+  <si>
+    <t>S. muriculata</t>
+  </si>
+  <si>
+    <t>S. oblonga</t>
+  </si>
+  <si>
+    <t>S. orientalis</t>
+  </si>
+  <si>
+    <t>S. ovata</t>
+  </si>
+  <si>
+    <t>S. parvula</t>
+  </si>
+  <si>
+    <t>S. paucifolia</t>
+  </si>
+  <si>
+    <t>S. pekenensis var. alpina</t>
+  </si>
+  <si>
+    <t>S. peregrina</t>
+  </si>
+  <si>
+    <t>S. pinnatifida</t>
+  </si>
+  <si>
+    <t>S. potosina</t>
+  </si>
+  <si>
+    <t>S. prostrata</t>
+  </si>
+  <si>
+    <t>S. przewalskii</t>
+  </si>
+  <si>
+    <t>S. pseudoserrata</t>
+  </si>
+  <si>
+    <t>S. pulchella</t>
+  </si>
+  <si>
+    <t>S. purpurascens</t>
+  </si>
+  <si>
+    <t>S. racemosa</t>
+  </si>
+  <si>
+    <t>S. relenorskyi</t>
+  </si>
+  <si>
+    <t>S. resinosa</t>
+  </si>
+  <si>
+    <t>S. sapphirina</t>
+  </si>
+  <si>
+    <t>S. scordiifolia</t>
+  </si>
+  <si>
+    <t>S. seleriana</t>
+  </si>
+  <si>
+    <t>S. serrata</t>
+  </si>
+  <si>
+    <t>S. siphocampuloides</t>
+  </si>
+  <si>
+    <t>S. splendens</t>
+  </si>
+  <si>
+    <t>S. strigillosa</t>
+  </si>
+  <si>
+    <t>S. suffrutscens</t>
+  </si>
+  <si>
+    <t>S. sumatrana</t>
+  </si>
+  <si>
+    <t>S. tessellata</t>
+  </si>
+  <si>
+    <t>S. tournefortii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +933,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -689,7 +978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -697,22 +986,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B26A3BC-753B-4215-92EB-E0126892F519}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,15 +1364,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1092,12 +1412,12 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1113,12 +1433,12 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1134,12 +1454,12 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1155,12 +1475,12 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1176,12 +1496,12 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1197,12 +1517,12 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1218,12 +1538,12 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1239,12 +1559,12 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1260,12 +1580,12 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1281,12 +1601,12 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1302,12 +1622,12 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1323,12 +1643,12 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1344,12 +1664,12 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1368,12 +1688,12 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1389,12 +1709,12 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1413,12 +1733,12 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1437,17 +1757,17 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1459,7 +1779,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1474,7 +1794,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1486,7 +1806,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1501,7 +1821,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1513,7 +1833,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1528,7 +1848,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1540,7 +1860,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1555,7 +1875,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1570,7 +1890,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1585,7 +1905,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1600,7 +1920,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1615,7 +1935,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1630,7 +1950,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1645,7 +1965,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1660,7 +1980,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1675,7 +1995,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1687,7 +2007,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1699,7 +2019,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1711,7 +2031,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1723,7 +2043,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1735,7 +2055,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1747,7 +2067,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1765,7 +2085,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1777,7 +2097,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1792,7 +2112,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1804,7 +2124,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1816,247 +2136,247 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>207</v>
+      <c r="A51" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2072,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,44 +2409,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2">
         <v>43868</v>
@@ -2135,15 +2455,15 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2">
         <v>43868</v>
@@ -2152,15 +2472,15 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2">
         <v>43868</v>
@@ -2169,100 +2489,100 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2">
         <v>43868</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2">
         <v>43868</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2">
         <v>43868</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2270,27 +2590,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2">
         <v>43565</v>
@@ -2301,126 +2621,126 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2">
         <v>43779</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2">
         <v>43686</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19" s="2">
         <v>43656</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D21" s="2">
         <v>43409</v>
@@ -2429,35 +2749,35 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2">
         <v>43565</v>
@@ -2468,10 +2788,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2">
         <v>43868</v>
@@ -2480,15 +2800,15 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2">
         <v>43868</v>
@@ -2497,15 +2817,15 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D26" s="2">
         <v>43868</v>
@@ -2514,32 +2834,32 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="3">
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2">
         <v>43868</v>
@@ -2548,15 +2868,15 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2">
         <v>43868</v>
@@ -2565,15 +2885,15 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2">
         <v>43868</v>
@@ -2582,35 +2902,35 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2">
         <v>43411</v>
@@ -2619,32 +2939,32 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2">
         <v>43405</v>
@@ -2653,63 +2973,63 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2">
         <v>43580</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2">
         <v>43565</v>
@@ -2720,13 +3040,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2">
         <v>43409</v>
@@ -2735,100 +3055,100 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" s="2">
         <v>43403</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" s="2">
         <v>43588</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="2">
         <v>43656</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2">
         <v>43592</v>
@@ -2839,41 +3159,41 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="2">
         <v>43739</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2">
         <v>43656</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="2">
         <v>43592</v>
@@ -2884,27 +3204,27 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D50" s="2">
         <v>43868</v>
@@ -2913,15 +3233,15 @@
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="2">
         <v>43868</v>
@@ -2930,15 +3250,15 @@
         <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="2">
         <v>43868</v>
@@ -2947,23 +3267,23 @@
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2972,4 +3292,977 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+    <sortCondition ref="A2:A86"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A45:A46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="25" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D77E65-5ABE-4287-B65D-F2AF67FA498B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A911C489-8313-4FD2-8BD8-1B9FF1866A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
@@ -1012,13 +1012,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,6 +1027,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,12 +1364,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -3298,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3309,940 +3309,940 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="B47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="B54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="B55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="B56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="B57" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="B58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="B67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="B68" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="B70" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="B72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D73" s="10"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
+      <c r="B74" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+      <c r="B77" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="B78" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="B79" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="10"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B80" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
+      <c r="B83" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
+      <c r="B84" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="B85" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="5"/>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A911C489-8313-4FD2-8BD8-1B9FF1866A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C6F57-455A-4628-96CA-1215ED9571D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -911,13 +911,25 @@
   </si>
   <si>
     <t>S. tournefortii</t>
+  </si>
+  <si>
+    <t>Herbarium</t>
+  </si>
+  <si>
+    <t>Voucher #</t>
+  </si>
+  <si>
+    <t>Steere herbarium, NY, USA</t>
+  </si>
+  <si>
+    <t>UF herbarium, FL, USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,11 +944,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -965,6 +972,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -999,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1009,30 +1030,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,12 +1391,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -3296,971 +3323,1397 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B28" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E28" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7" t="s">
+      <c r="E46" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7" t="s">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D49" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="E51" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="E64" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="E80" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="E81" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="E83" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="E86" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="5"/>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
-    <sortCondition ref="A2:A86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E87">
+    <sortCondition ref="B2:B87"/>
   </sortState>
-  <mergeCells count="6">
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A45:A46"/>
+  <mergeCells count="7">
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C6F57-455A-4628-96CA-1215ED9571D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799329E-FDDE-4E16-8AAE-38A4081D076B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="424">
   <si>
     <t>Name</t>
   </si>
@@ -745,9 +745,6 @@
     <t>S. formosa</t>
   </si>
   <si>
-    <t>S. fructicosa</t>
-  </si>
-  <si>
     <t>S. galericulata</t>
   </si>
   <si>
@@ -757,9 +754,6 @@
     <t>S. guatemalensis</t>
   </si>
   <si>
-    <t>S. hastifolia</t>
-  </si>
-  <si>
     <t>S. havanensis</t>
   </si>
   <si>
@@ -844,9 +838,6 @@
     <t>S. paucifolia</t>
   </si>
   <si>
-    <t>S. pekenensis var. alpina</t>
-  </si>
-  <si>
     <t>S. peregrina</t>
   </si>
   <si>
@@ -916,20 +907,413 @@
     <t>Herbarium</t>
   </si>
   <si>
-    <t>Voucher #</t>
-  </si>
-  <si>
     <t>Steere herbarium, NY, USA</t>
   </si>
   <si>
-    <t>UF herbarium, FL, USA</t>
+    <t>Voucher ID</t>
+  </si>
+  <si>
+    <t>Voucher info</t>
+  </si>
+  <si>
+    <t>NYBG02</t>
+  </si>
+  <si>
+    <t>T. H. Everett s. n.</t>
+  </si>
+  <si>
+    <t>NYBG01</t>
+  </si>
+  <si>
+    <t>Manana Churadze 1007</t>
+  </si>
+  <si>
+    <t>NYBG69</t>
+  </si>
+  <si>
+    <t>K. M. Naid s. n.</t>
+  </si>
+  <si>
+    <t>NYBG04</t>
+  </si>
+  <si>
+    <t>R. Olmstead 558</t>
+  </si>
+  <si>
+    <t>NYBG03</t>
+  </si>
+  <si>
+    <t>Arnold Tiehm 16758</t>
+  </si>
+  <si>
+    <t>NYBG05</t>
+  </si>
+  <si>
+    <t>N. D. Atwood 28625</t>
+  </si>
+  <si>
+    <t>University of Florida herbarium, FL, USA</t>
+  </si>
+  <si>
+    <t>NYBG06</t>
+  </si>
+  <si>
+    <t>John Thomas Howell 38532</t>
+  </si>
+  <si>
+    <t>NYBG38</t>
+  </si>
+  <si>
+    <t>G. B. H. 1086</t>
+  </si>
+  <si>
+    <t>NYBG07</t>
+  </si>
+  <si>
+    <t>Steven P. Churchill 7376</t>
+  </si>
+  <si>
+    <t>NYBG08</t>
+  </si>
+  <si>
+    <t>R. Olmstead 434</t>
+  </si>
+  <si>
+    <t>NYBG09</t>
+  </si>
+  <si>
+    <t>D. Cardenas et al. 42257</t>
+  </si>
+  <si>
+    <t>NYBG39</t>
+  </si>
+  <si>
+    <t>T. Sultan Quedensley 10037</t>
+  </si>
+  <si>
+    <t>NYBG40</t>
+  </si>
+  <si>
+    <t>Arthur Cronquist 8834</t>
+  </si>
+  <si>
+    <t>NYBG58</t>
+  </si>
+  <si>
+    <t>A. A. Bullock 740</t>
+  </si>
+  <si>
+    <t>NYBG10</t>
+  </si>
+  <si>
+    <t>Larry C. Higgins 17229</t>
+  </si>
+  <si>
+    <t>NYBG11</t>
+  </si>
+  <si>
+    <t>C. E. Garton 22860</t>
+  </si>
+  <si>
+    <t>NYBG41</t>
+  </si>
+  <si>
+    <t>H. et al. 11073</t>
+  </si>
+  <si>
+    <t>S. fruticosa</t>
+  </si>
+  <si>
+    <t>NYBG59</t>
+  </si>
+  <si>
+    <t>Henry Field &amp; Yusuf Lazar s. n.</t>
+  </si>
+  <si>
+    <t>NYBG12</t>
+  </si>
+  <si>
+    <t>D. Erskine &amp; A. J. Smith 2118</t>
+  </si>
+  <si>
+    <t>NYBG13</t>
+  </si>
+  <si>
+    <t>R. Kral s. n.</t>
+  </si>
+  <si>
+    <t>NYBG44</t>
+  </si>
+  <si>
+    <t>Demetrio Alvarez 11028</t>
+  </si>
+  <si>
+    <t>NYBG14</t>
+  </si>
+  <si>
+    <t>J. K. Small s. n.</t>
+  </si>
+  <si>
+    <t>NYBG62</t>
+  </si>
+  <si>
+    <t>A. Bertschinger s. n.</t>
+  </si>
+  <si>
+    <t>NYBG63</t>
+  </si>
+  <si>
+    <t>Walter Koelz 6242</t>
+  </si>
+  <si>
+    <t>NYBG42</t>
+  </si>
+  <si>
+    <t>R. D. Worthington 12501</t>
+  </si>
+  <si>
+    <t>NYBG15</t>
+  </si>
+  <si>
+    <t>Gary Schoolcraft 1222</t>
+  </si>
+  <si>
+    <t>NYBG43</t>
+  </si>
+  <si>
+    <t>L. O. Willioms et al. 28585</t>
+  </si>
+  <si>
+    <t>NYBG17</t>
+  </si>
+  <si>
+    <t>R. Dale Thomas 150388</t>
+  </si>
+  <si>
+    <t>NYBG45</t>
+  </si>
+  <si>
+    <t>Alberto M. Brenes s. n.</t>
+  </si>
+  <si>
+    <t>NYBG73</t>
+  </si>
+  <si>
+    <t>A. Charpin et al. s. n.</t>
+  </si>
+  <si>
+    <t>NYBG64</t>
+  </si>
+  <si>
+    <t>Lau, S. K. 1915</t>
+  </si>
+  <si>
+    <t>NYBG18</t>
+  </si>
+  <si>
+    <t>George F. buddell II 2352</t>
+  </si>
+  <si>
+    <t>NYBG19</t>
+  </si>
+  <si>
+    <t>J. C. Arthwz s. n.</t>
+  </si>
+  <si>
+    <t>NYBG74</t>
+  </si>
+  <si>
+    <t>L. Maplcoba s. n.</t>
+  </si>
+  <si>
+    <t>NYBG47</t>
+  </si>
+  <si>
+    <t>J. J. Castillo &amp; J. M. Vargas 2722</t>
+  </si>
+  <si>
+    <t>NYBG48</t>
+  </si>
+  <si>
+    <t>Jorge A. Molina 30005</t>
+  </si>
+  <si>
+    <t>NYBG20</t>
+  </si>
+  <si>
+    <t>Hinton et al. 21760</t>
+  </si>
+  <si>
+    <t>NYBG49</t>
+  </si>
+  <si>
+    <t>H. D. Ripley 14966</t>
+  </si>
+  <si>
+    <t>NYBG60</t>
+  </si>
+  <si>
+    <t>Assadi, Edmondson &amp; Miller 2135</t>
+  </si>
+  <si>
+    <t>NYBG22</t>
+  </si>
+  <si>
+    <t>D. S. &amp; H. B. Correll 51703</t>
+  </si>
+  <si>
+    <t>NYBG23</t>
+  </si>
+  <si>
+    <t>C. L. Lundell 14978</t>
+  </si>
+  <si>
+    <t>NYBG61</t>
+  </si>
+  <si>
+    <t>L. H. Cramer 4871</t>
+  </si>
+  <si>
+    <t>NYBG54</t>
+  </si>
+  <si>
+    <t>E. Serowa &amp; E. Ryschowa s. n.</t>
+  </si>
+  <si>
+    <t>NYBG26</t>
+  </si>
+  <si>
+    <t>R. Dale Thomas et al. 170488</t>
+  </si>
+  <si>
+    <t>NYBG27</t>
+  </si>
+  <si>
+    <t>R. Dale Thomas &amp; Cecil Slaughter 103883</t>
+  </si>
+  <si>
+    <t>NYBG71</t>
+  </si>
+  <si>
+    <t>Paul Jaeger 8796</t>
+  </si>
+  <si>
+    <t>S. pekinensis var. alpina</t>
+  </si>
+  <si>
+    <t>NYBG67</t>
+  </si>
+  <si>
+    <t>NYBG65</t>
+  </si>
+  <si>
+    <t>K. H. Rechinger 686</t>
+  </si>
+  <si>
+    <t>NYBG28</t>
+  </si>
+  <si>
+    <t>D. S. &amp; H. B. Correll 30562</t>
+  </si>
+  <si>
+    <t>NYBG66</t>
+  </si>
+  <si>
+    <t>Walter Koelz 21180</t>
+  </si>
+  <si>
+    <t>NYBG56</t>
+  </si>
+  <si>
+    <t>L. Janczenko s. n.</t>
+  </si>
+  <si>
+    <t>NYBG29</t>
+  </si>
+  <si>
+    <t>NYBG55</t>
+  </si>
+  <si>
+    <t>R. Schischkin et al. s. n.</t>
+  </si>
+  <si>
+    <t>NYBG50</t>
+  </si>
+  <si>
+    <t>NYBG68</t>
+  </si>
+  <si>
+    <t>A. Donmez 3627</t>
+  </si>
+  <si>
+    <t>NYBG31</t>
+  </si>
+  <si>
+    <t>Graig C. Freeman &amp; Ralph E. Brooks 3682</t>
+  </si>
+  <si>
+    <t>NYBG32</t>
+  </si>
+  <si>
+    <t>S. L. Welsh 20585</t>
+  </si>
+  <si>
+    <t>NYBG57</t>
+  </si>
+  <si>
+    <t>H. H. Iltis et al. 307</t>
+  </si>
+  <si>
+    <t>NYBG51</t>
+  </si>
+  <si>
+    <t>C. G. Pringle s. n.</t>
+  </si>
+  <si>
+    <t>NYBG33</t>
+  </si>
+  <si>
+    <t>J. J. Carter s. n.</t>
+  </si>
+  <si>
+    <t>NYBG35</t>
+  </si>
+  <si>
+    <t>Scott D. White 4380</t>
+  </si>
+  <si>
+    <t>NYBG52</t>
+  </si>
+  <si>
+    <t>A. Villegas H. 00063</t>
+  </si>
+  <si>
+    <t>NYBG53</t>
+  </si>
+  <si>
+    <t>James L. Reveal 3390</t>
+  </si>
+  <si>
+    <t>NYBG72</t>
+  </si>
+  <si>
+    <t>Carel Hamel &amp; Rahmat Si Toroes 767</t>
+  </si>
+  <si>
+    <t>NYBG36</t>
+  </si>
+  <si>
+    <t>R. D. Worthington 13323</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,31 +1328,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -986,6 +1345,21 @@
     </font>
     <font>
       <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1020,7 +1394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1030,36 +1404,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,12 +1762,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -3323,1397 +3694,1799 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:F87"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="E70" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="6" t="s">
+      <c r="E79" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D82" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6" t="s">
+      <c r="E82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D86" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E87" s="10"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="15"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="15"/>
+      <c r="E86" s="6"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E87">
     <sortCondition ref="B2:B87"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B72:B73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799329E-FDDE-4E16-8AAE-38A4081D076B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77036ED3-29B3-4161-8354-D5146E9FD47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
@@ -1418,9 +1418,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,6 +1425,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1762,12 +1762,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -3696,7 +3696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3710,7 +3712,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>423</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -3736,13 +3738,13 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -3762,7 +3764,7 @@
       <c r="B3" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -3783,10 +3785,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E4" s="6"/>
@@ -3796,10 +3798,10 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D5" s="6"/>
@@ -3817,10 +3819,10 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D6" s="6"/>
@@ -3838,10 +3840,10 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="6"/>
@@ -3859,10 +3861,10 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="6"/>
@@ -3883,10 +3885,10 @@
       <c r="B9" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="13"/>
+      <c r="C9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
         <v>305</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3910,13 +3912,13 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -3933,13 +3935,13 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E12" s="6"/>
@@ -3952,10 +3954,10 @@
       <c r="B13" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E13" s="6"/>
@@ -3966,10 +3968,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -3981,10 +3983,10 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="6"/>
@@ -4002,10 +4004,10 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="6"/>
@@ -4023,10 +4025,10 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D17" s="6"/>
@@ -4044,10 +4046,10 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D18" s="6"/>
@@ -4065,13 +4067,13 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -4088,13 +4090,13 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -4111,13 +4113,13 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -4129,10 +4131,10 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="6"/>
@@ -4150,10 +4152,10 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="6"/>
@@ -4171,10 +4173,10 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="6"/>
@@ -4187,13 +4189,13 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -4210,13 +4212,13 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -4233,13 +4235,13 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -4256,13 +4258,13 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -4279,10 +4281,10 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="6"/>
@@ -4300,10 +4302,10 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="6"/>
@@ -4324,10 +4326,10 @@
       <c r="B31" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="13"/>
+      <c r="C31" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="6" t="s">
         <v>290</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -4356,13 +4358,13 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="13"/>
+      <c r="C33" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="12"/>
       <c r="E33" s="6" t="s">
         <v>290</v>
       </c>
@@ -4377,10 +4379,10 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D34" s="6"/>
@@ -4398,10 +4400,10 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="6"/>
@@ -4419,10 +4421,10 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -4442,13 +4444,13 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -4465,13 +4467,13 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="13"/>
+      <c r="C38" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="12"/>
       <c r="E38" s="6" t="s">
         <v>290</v>
       </c>
@@ -4486,10 +4488,10 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -4504,13 +4506,13 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -4522,13 +4524,13 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="13"/>
+      <c r="C41" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="12"/>
       <c r="E41" s="6" t="s">
         <v>305</v>
       </c>
@@ -4538,10 +4540,10 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -4561,13 +4563,13 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="13"/>
+      <c r="C43" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="12"/>
       <c r="E43" s="6" t="s">
         <v>290</v>
       </c>
@@ -4582,10 +4584,10 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D44" s="6"/>
@@ -4606,7 +4608,7 @@
       <c r="B45" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -4627,10 +4629,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="14"/>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E46" s="6"/>
@@ -4643,10 +4645,10 @@
       <c r="B47" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="13"/>
+      <c r="C47" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="12"/>
       <c r="E47" s="6" t="s">
         <v>290</v>
       </c>
@@ -4662,7 +4664,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -4675,13 +4677,13 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="13"/>
+      <c r="C49" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="12"/>
       <c r="E49" s="6" t="s">
         <v>290</v>
       </c>
@@ -4696,10 +4698,10 @@
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -4719,10 +4721,10 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D51" s="6"/>
@@ -4740,13 +4742,13 @@
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="13" t="s">
+      <c r="C52" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -4763,13 +4765,13 @@
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -4786,10 +4788,10 @@
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D54" s="6"/>
@@ -4807,10 +4809,10 @@
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D55" s="6"/>
@@ -4828,10 +4830,10 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D56" s="6"/>
@@ -4844,10 +4846,10 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D57" s="6"/>
@@ -4865,10 +4867,10 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D58" s="6"/>
@@ -4886,13 +4888,13 @@
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E59" s="6" t="s">
@@ -4909,13 +4911,13 @@
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="C60" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -4932,13 +4934,13 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="13" t="s">
+      <c r="C61" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -4955,10 +4957,10 @@
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D62" s="6"/>
@@ -4976,13 +4978,13 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E63" s="6" t="s">
@@ -4994,10 +4996,10 @@
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D64" s="6"/>
@@ -5015,10 +5017,10 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D65" s="6"/>
@@ -5036,13 +5038,13 @@
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E66" s="6" t="s">
@@ -5059,10 +5061,10 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D67" s="6"/>
@@ -5080,10 +5082,10 @@
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D68" s="6"/>
@@ -5101,10 +5103,10 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D69" s="6"/>
@@ -5122,13 +5124,13 @@
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="13" t="s">
+      <c r="C70" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -5145,10 +5147,10 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="6"/>
@@ -5169,7 +5171,7 @@
       <c r="B72" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D72" s="6"/>
@@ -5183,10 +5185,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="14"/>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E73" s="6"/>
@@ -5196,10 +5198,10 @@
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D74" s="6"/>
@@ -5217,13 +5219,13 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="13" t="s">
+      <c r="C75" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E75" s="6" t="s">
@@ -5240,13 +5242,13 @@
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="13" t="s">
+      <c r="C76" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E76" s="6" t="s">
@@ -5263,10 +5265,10 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D77" s="6"/>
@@ -5284,10 +5286,10 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D78" s="6"/>
@@ -5305,13 +5307,13 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="13" t="s">
+      <c r="C79" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="6" t="s">
@@ -5328,13 +5330,13 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="13" t="s">
+      <c r="C80" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E80" s="6" t="s">
@@ -5351,13 +5353,13 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="13" t="s">
+      <c r="C81" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="6" t="s">
@@ -5374,13 +5376,13 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E82" s="6" t="s">
@@ -5392,10 +5394,10 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D83" s="6"/>
@@ -5413,10 +5415,10 @@
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D84" s="6"/>
@@ -5434,13 +5436,13 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="13" t="s">
+      <c r="C85" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E85" s="6" t="s">
@@ -5457,13 +5459,13 @@
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E86" s="6"/>
@@ -5480,13 +5482,13 @@
     <sortCondition ref="B2:B87"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B72:B73"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B72:B73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77036ED3-29B3-4161-8354-D5146E9FD47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BDF2E4-1386-4927-8D3A-C6BD5708A192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="780" yWindow="600" windowWidth="19005" windowHeight="15600" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="433">
   <si>
     <t>Name</t>
   </si>
@@ -775,18 +775,12 @@
     <t>S. incanca</t>
   </si>
   <si>
-    <t>S. indica var. coccinea</t>
-  </si>
-  <si>
     <t>S. insignis</t>
   </si>
   <si>
     <t>S. integrifolia</t>
   </si>
   <si>
-    <t>S. isochelia</t>
-  </si>
-  <si>
     <t>S. javalambrensis</t>
   </si>
   <si>
@@ -907,12 +901,6 @@
     <t>Herbarium</t>
   </si>
   <si>
-    <t>Steere herbarium, NY, USA</t>
-  </si>
-  <si>
-    <t>Voucher ID</t>
-  </si>
-  <si>
     <t>Voucher info</t>
   </si>
   <si>
@@ -925,9 +913,6 @@
     <t>NYBG01</t>
   </si>
   <si>
-    <t>Manana Churadze 1007</t>
-  </si>
-  <si>
     <t>NYBG69</t>
   </si>
   <si>
@@ -943,36 +928,21 @@
     <t>NYBG03</t>
   </si>
   <si>
-    <t>Arnold Tiehm 16758</t>
-  </si>
-  <si>
     <t>NYBG05</t>
   </si>
   <si>
     <t>N. D. Atwood 28625</t>
   </si>
   <si>
-    <t>University of Florida herbarium, FL, USA</t>
-  </si>
-  <si>
     <t>NYBG06</t>
   </si>
   <si>
-    <t>John Thomas Howell 38532</t>
-  </si>
-  <si>
     <t>NYBG38</t>
   </si>
   <si>
-    <t>G. B. H. 1086</t>
-  </si>
-  <si>
     <t>NYBG07</t>
   </si>
   <si>
-    <t>Steven P. Churchill 7376</t>
-  </si>
-  <si>
     <t>NYBG08</t>
   </si>
   <si>
@@ -988,15 +958,9 @@
     <t>NYBG39</t>
   </si>
   <si>
-    <t>T. Sultan Quedensley 10037</t>
-  </si>
-  <si>
     <t>NYBG40</t>
   </si>
   <si>
-    <t>Arthur Cronquist 8834</t>
-  </si>
-  <si>
     <t>NYBG58</t>
   </si>
   <si>
@@ -1006,9 +970,6 @@
     <t>NYBG10</t>
   </si>
   <si>
-    <t>Larry C. Higgins 17229</t>
-  </si>
-  <si>
     <t>NYBG11</t>
   </si>
   <si>
@@ -1027,9 +988,6 @@
     <t>NYBG59</t>
   </si>
   <si>
-    <t>Henry Field &amp; Yusuf Lazar s. n.</t>
-  </si>
-  <si>
     <t>NYBG12</t>
   </si>
   <si>
@@ -1045,9 +1003,6 @@
     <t>NYBG44</t>
   </si>
   <si>
-    <t>Demetrio Alvarez 11028</t>
-  </si>
-  <si>
     <t>NYBG14</t>
   </si>
   <si>
@@ -1063,9 +1018,6 @@
     <t>NYBG63</t>
   </si>
   <si>
-    <t>Walter Koelz 6242</t>
-  </si>
-  <si>
     <t>NYBG42</t>
   </si>
   <si>
@@ -1075,9 +1027,6 @@
     <t>NYBG15</t>
   </si>
   <si>
-    <t>Gary Schoolcraft 1222</t>
-  </si>
-  <si>
     <t>NYBG43</t>
   </si>
   <si>
@@ -1087,15 +1036,9 @@
     <t>NYBG17</t>
   </si>
   <si>
-    <t>R. Dale Thomas 150388</t>
-  </si>
-  <si>
     <t>NYBG45</t>
   </si>
   <si>
-    <t>Alberto M. Brenes s. n.</t>
-  </si>
-  <si>
     <t>NYBG73</t>
   </si>
   <si>
@@ -1105,15 +1048,9 @@
     <t>NYBG64</t>
   </si>
   <si>
-    <t>Lau, S. K. 1915</t>
-  </si>
-  <si>
     <t>NYBG18</t>
   </si>
   <si>
-    <t>George F. buddell II 2352</t>
-  </si>
-  <si>
     <t>NYBG19</t>
   </si>
   <si>
@@ -1159,9 +1096,6 @@
     <t>NYBG22</t>
   </si>
   <si>
-    <t>D. S. &amp; H. B. Correll 51703</t>
-  </si>
-  <si>
     <t>NYBG23</t>
   </si>
   <si>
@@ -1183,24 +1117,12 @@
     <t>NYBG26</t>
   </si>
   <si>
-    <t>R. Dale Thomas et al. 170488</t>
-  </si>
-  <si>
     <t>NYBG27</t>
   </si>
   <si>
-    <t>R. Dale Thomas &amp; Cecil Slaughter 103883</t>
-  </si>
-  <si>
     <t>NYBG71</t>
   </si>
   <si>
-    <t>Paul Jaeger 8796</t>
-  </si>
-  <si>
-    <t>S. pekinensis var. alpina</t>
-  </si>
-  <si>
     <t>NYBG67</t>
   </si>
   <si>
@@ -1213,15 +1135,9 @@
     <t>NYBG28</t>
   </si>
   <si>
-    <t>D. S. &amp; H. B. Correll 30562</t>
-  </si>
-  <si>
     <t>NYBG66</t>
   </si>
   <si>
-    <t>Walter Koelz 21180</t>
-  </si>
-  <si>
     <t>NYBG56</t>
   </si>
   <si>
@@ -1249,9 +1165,6 @@
     <t>NYBG31</t>
   </si>
   <si>
-    <t>Graig C. Freeman &amp; Ralph E. Brooks 3682</t>
-  </si>
-  <si>
     <t>NYBG32</t>
   </si>
   <si>
@@ -1279,9 +1192,6 @@
     <t>NYBG35</t>
   </si>
   <si>
-    <t>Scott D. White 4380</t>
-  </si>
-  <si>
     <t>NYBG52</t>
   </si>
   <si>
@@ -1291,15 +1201,9 @@
     <t>NYBG53</t>
   </si>
   <si>
-    <t>James L. Reveal 3390</t>
-  </si>
-  <si>
     <t>NYBG72</t>
   </si>
   <si>
-    <t>Carel Hamel &amp; Rahmat Si Toroes 767</t>
-  </si>
-  <si>
     <t>NYBG36</t>
   </si>
   <si>
@@ -1307,13 +1211,182 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Voucher label</t>
+  </si>
+  <si>
+    <t>University of Florida Herbarium, FL, USA</t>
+  </si>
+  <si>
+    <t>Steere Herbarium, NY, USA</t>
+  </si>
+  <si>
+    <t>M. Churadze 1007</t>
+  </si>
+  <si>
+    <t>A. Tiehm 16758</t>
+  </si>
+  <si>
+    <t>Sungshin Herbarium, Seoul, Republic of Korea</t>
+  </si>
+  <si>
+    <t>J. T. Howell 38532</t>
+  </si>
+  <si>
+    <t>G. B. Hinton 1086</t>
+  </si>
+  <si>
+    <t>S. P. Churchill 7376</t>
+  </si>
+  <si>
+    <t>T. S. Quedensley 10037</t>
+  </si>
+  <si>
+    <t>A. Cronquist 8834</t>
+  </si>
+  <si>
+    <t>L. C. Higgins 17229</t>
+  </si>
+  <si>
+    <t>H. Field &amp; Y. Lazar s. n.</t>
+  </si>
+  <si>
+    <t>D. Alvarez 11028</t>
+  </si>
+  <si>
+    <t>W. Koelz 6242</t>
+  </si>
+  <si>
+    <t>G. Schoolcraft 1222</t>
+  </si>
+  <si>
+    <t>R. D. Thomas 150388</t>
+  </si>
+  <si>
+    <t>A. M. Brenes s. n.</t>
+  </si>
+  <si>
+    <t>S. K. Lau 1915</t>
+  </si>
+  <si>
+    <t>G. F. Buddell II 2352</t>
+  </si>
+  <si>
+    <t>D. S. Correll &amp; H. B. Correll 51703</t>
+  </si>
+  <si>
+    <t>R. D. Thomas et al. 170488</t>
+  </si>
+  <si>
+    <t>R. D. Thomas &amp; C. Slaughter 103883</t>
+  </si>
+  <si>
+    <t>P. Jaeger 8796</t>
+  </si>
+  <si>
+    <t>D. S. Correll &amp; H. B. Correll 30562</t>
+  </si>
+  <si>
+    <t>W. Koelz 21180</t>
+  </si>
+  <si>
+    <t>G. C. Freeman &amp; R. E. Brooks 3682</t>
+  </si>
+  <si>
+    <t>S. D. White 4380</t>
+  </si>
+  <si>
+    <t>J. L. Reveal 3390</t>
+  </si>
+  <si>
+    <t>C. Hamel &amp; R. S. Toroes 767</t>
+  </si>
+  <si>
+    <t>S. Kim 2019-065</t>
+  </si>
+  <si>
+    <t>To be submitted</t>
+  </si>
+  <si>
+    <t>S. Kim 2019-056</t>
+  </si>
+  <si>
+    <t>S. Kim &amp; S. T. Lee 2015-0298</t>
+  </si>
+  <si>
+    <t>S. Kim 2015-0110</t>
+  </si>
+  <si>
+    <t>S. Kim 2015-0268</t>
+  </si>
+  <si>
+    <r>
+      <t>S. pekinensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> var.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> alpina</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S. indica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coccinea</t>
+    </r>
+  </si>
+  <si>
+    <t>S. Kim 20140705</t>
+  </si>
+  <si>
+    <t>S. isocheila</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,13 +1437,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1394,7 +1480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1420,12 +1506,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1762,12 +1852,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -2790,7 +2880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3694,26 +3784,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>210</v>
@@ -3725,1756 +3816,2129 @@
         <v>211</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>IF(E2="Steere Herbarium, NY, USA", CONCATENATE(G2, " (NY)"), IF(E2="University of Florida Herbarium, FL, USA", CONCATENATE(G2, " (FLAS)"), IF(E2="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G2, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>T. H. Everett s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">IF(E3="Steere Herbarium, NY, USA", CONCATENATE(G3, " (NY)"), IF(E3="University of Florida Herbarium, FL, USA", CONCATENATE(G3, " (FLAS)"), IF(E3="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G3, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>M. Churadze 1007 (NY)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>K. M. Naid s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>R. Olmstead 558 (NY)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>A. Tiehm 16758 (NY)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>N. D. Atwood 28625 (NY)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="12"/>
+      <c r="C9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (FLAS)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="11" t="s">
         <v>206</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>J. T. Howell 38532 (NY)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>S. Kim 2019-056 (SWU)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>G. B. Hinton 1086 (NY)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>S. P. Churchill 7376 (NY)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>R. Olmstead 434 (NY)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>D. Cardenas et al. 42257 (NY)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>T. S. Quedensley 10037 (NY)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>A. Cronquist 8834 (NY)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>S. Kim 2019-065 (SWU)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>A. A. Bullock 740 (NY)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>L. C. Higgins 17229 (NY)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (FLAS)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>C. E. Garton 22860 (NY)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>H. et al. 11073 (NY)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>D. Erskine &amp; A. J. Smith 2118 (NY)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>R. Kral s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>D. Alvarez 11028 (NY)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="C31" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>J. K. Small s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="11" t="s">
         <v>206</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="12"/>
+      <c r="C33" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>A. Bertschinger s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>W. Koelz 6242 (NY)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>R. D. Worthington 12501 (NY)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>G. Schoolcraft 1222 (NY)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>L. O. Willioms et al. 28585 (NY)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="12"/>
+      <c r="C38" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>R. D. Thomas 150388 (NY)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>206</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>S. Kim &amp; S. T. Lee 2015-0298 (SWU)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>S. Kim 2015-0110 (SWU)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (FLAS)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>213</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>A. M. Brenes s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="12"/>
+      <c r="B43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>A. Charpin et al. s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>S. K. Lau 1915 (NY)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>G. F. Buddell II 2352 (NY)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="12"/>
+      <c r="B47" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="11"/>
       <c r="E47" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>J. C. Arthwz s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="11" t="s">
         <v>206</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="12"/>
+      <c r="B49" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="11"/>
       <c r="E49" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>L. Maplcoba s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="B50" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>213</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>J. J. Castillo &amp; J. M. Vargas 2722 (NY)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>Jorge A. Molina 30005 (NY)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="B52" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>Hinton et al. 21760 (NY)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="B53" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>H. D. Ripley 14966 (NY)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>Assadi, Edmondson &amp; Miller 2135 (NY)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>D. S. Correll &amp; H. B. Correll 51703 (NY)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> (FLAS)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>C. L. Lundell 14978 (NY)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>L. H. Cramer 4871 (NY)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="B59" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>E. Serowa &amp; E. Ryschowa s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="12" t="s">
+      <c r="B60" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>R. D. Thomas et al. 170488 (NY)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="B61" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>R. D. Thomas &amp; C. Slaughter 103883 (NY)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B62" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>P. Jaeger 8796 (NY)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>S. Kim 2015-0268 (SWU)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>K. H. Rechinger 686 (NY)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="12" t="s">
+      <c r="B66" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>D. S. Correll &amp; H. B. Correll 30562 (NY)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H85" si="1">IF(E67="Steere Herbarium, NY, USA", CONCATENATE(G67, " (NY)"), IF(E67="University of Florida Herbarium, FL, USA", CONCATENATE(G67, " (FLAS)"), IF(E67="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G67, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>W. Koelz 21180 (NY)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>L. Janczenko s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>R. Kral s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="B70" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>R. Schischkin et al. s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>A. M. Brenes s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> (FLAS)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E73" s="6"/>
+      <c r="E73" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>A. Donmez 3627 (NY)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="12" t="s">
+      <c r="B75" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>G. C. Freeman &amp; R. E. Brooks 3682 (NY)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="12" t="s">
+      <c r="B76" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>S. L. Welsh 20585 (NY)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>H. H. Iltis et al. 307 (NY)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>C. G. Pringle s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="12" t="s">
+      <c r="B79" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>J. J. Carter s. n. (NY)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="12" t="s">
+      <c r="B80" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>S. D. White 4380 (NY)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="12" t="s">
+      <c r="B81" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>A. Villegas H. 00063 (NY)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>S. Kim 20140705 (SWU)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>J. L. Reveal 3390 (NY)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C84" s="12" t="s">
+      <c r="B84" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>C. Hamel &amp; R. S. Toroes 767 (NY)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="12" t="s">
+      <c r="B85" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>R. D. Worthington 13323 (NY)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="B86" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E86" s="6"/>
+      <c r="E86" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="G86" s="5"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" t="str">
+        <f>IF(E86="Steere Herbarium, NY, USA", CONCATENATE(G86, " (NY)"), IF(E86="University of Florida Herbarium, FL, USA", CONCATENATE(G86, " (FLAS)"), IF(E86="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G86, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>Herbarium name not recognized</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E89" s="9"/>
     </row>
   </sheetData>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BDF2E4-1386-4927-8D3A-C6BD5708A192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289BA73-BA10-41FB-B8B2-058398D6A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="19005" windowHeight="15600" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -1380,6 +1380,15 @@
   </si>
   <si>
     <t>S. isocheila</t>
+  </si>
+  <si>
+    <t>S. wrightii</t>
+  </si>
+  <si>
+    <t>S. suffretescens</t>
+  </si>
+  <si>
+    <t>S. suffretescens x resinosa</t>
   </si>
 </sst>
 </file>
@@ -1417,12 +1426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1440,6 +1443,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1480,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1500,26 +1511,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1852,12 +1864,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -3784,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3803,7 +3815,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>391</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -3832,13 +3844,13 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -3859,10 +3871,10 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -3886,14 +3898,14 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G4" s="5"/>
@@ -3906,10 +3918,10 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D5" s="6"/>
@@ -3931,10 +3943,10 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D6" s="6"/>
@@ -3956,10 +3968,10 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="6"/>
@@ -3981,10 +3993,10 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="6"/>
@@ -4006,17 +4018,17 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> (FLAS)</v>
@@ -4026,14 +4038,14 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G10" s="5"/>
@@ -4046,13 +4058,13 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -4073,16 +4085,16 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G12" s="5"/>
@@ -4095,16 +4107,16 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G13" s="5"/>
@@ -4117,11 +4129,11 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -4139,10 +4151,10 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="6"/>
@@ -4164,10 +4176,10 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="6"/>
@@ -4189,10 +4201,10 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D17" s="6"/>
@@ -4214,10 +4226,10 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D18" s="6"/>
@@ -4239,13 +4251,13 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -4266,13 +4278,13 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -4293,13 +4305,13 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -4317,10 +4329,10 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="6"/>
@@ -4342,10 +4354,10 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="6"/>
@@ -4367,17 +4379,17 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> (FLAS)</v>
@@ -4387,13 +4399,13 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -4414,13 +4426,13 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -4441,13 +4453,13 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -4468,13 +4480,13 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -4495,10 +4507,10 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="6"/>
@@ -4520,10 +4532,10 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="6"/>
@@ -4545,13 +4557,13 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="10"/>
       <c r="E31" s="6" t="s">
         <v>395</v>
       </c>
@@ -4570,14 +4582,14 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G32" s="5"/>
@@ -4590,13 +4602,13 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="11"/>
+      <c r="C33" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="10"/>
       <c r="E33" s="6" t="s">
         <v>395</v>
       </c>
@@ -4615,10 +4627,10 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D34" s="6"/>
@@ -4640,10 +4652,10 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="6"/>
@@ -4665,10 +4677,10 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -4692,13 +4704,13 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -4719,13 +4731,13 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="C38" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="10"/>
       <c r="E38" s="6" t="s">
         <v>395</v>
       </c>
@@ -4744,10 +4756,10 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -4768,13 +4780,13 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -4792,17 +4804,17 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="11"/>
+      <c r="C41" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="E41" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G41" s="14"/>
+      <c r="G41" s="13"/>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> (FLAS)</v>
@@ -4812,10 +4824,10 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -4839,13 +4851,13 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="6" t="s">
         <v>395</v>
       </c>
@@ -4864,10 +4876,10 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D44" s="6"/>
@@ -4889,10 +4901,10 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -4916,14 +4928,14 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G46" s="5"/>
@@ -4936,13 +4948,13 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="11"/>
+      <c r="C47" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="10"/>
       <c r="E47" s="6" t="s">
         <v>395</v>
       </c>
@@ -4961,14 +4973,14 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G48" s="5"/>
@@ -4981,13 +4993,13 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="10"/>
       <c r="E49" s="6" t="s">
         <v>395</v>
       </c>
@@ -5006,10 +5018,10 @@
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -5033,10 +5045,10 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D51" s="6"/>
@@ -5058,13 +5070,13 @@
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -5085,13 +5097,13 @@
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -5112,10 +5124,10 @@
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D54" s="6"/>
@@ -5137,10 +5149,10 @@
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D55" s="6"/>
@@ -5162,17 +5174,17 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G56" s="14"/>
+      <c r="G56" s="13"/>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> (FLAS)</v>
@@ -5182,10 +5194,10 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D57" s="6"/>
@@ -5207,10 +5219,10 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D58" s="6"/>
@@ -5232,13 +5244,13 @@
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="11" t="s">
+      <c r="C59" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E59" s="6" t="s">
@@ -5259,13 +5271,13 @@
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="11" t="s">
+      <c r="C60" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -5286,13 +5298,13 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="11" t="s">
+      <c r="C61" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -5313,10 +5325,10 @@
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D62" s="6"/>
@@ -5338,13 +5350,13 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E63" s="6" t="s">
@@ -5362,10 +5374,10 @@
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D64" s="6"/>
@@ -5387,10 +5399,10 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D65" s="6"/>
@@ -5412,13 +5424,13 @@
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E66" s="6" t="s">
@@ -5439,10 +5451,10 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D67" s="6"/>
@@ -5464,10 +5476,10 @@
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D68" s="6"/>
@@ -5489,10 +5501,10 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D69" s="6"/>
@@ -5514,13 +5526,13 @@
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -5541,10 +5553,10 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="6"/>
@@ -5566,17 +5578,17 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G72" s="14"/>
+      <c r="G72" s="13"/>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> (FLAS)</v>
@@ -5586,14 +5598,14 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G73" s="5"/>
@@ -5606,10 +5618,10 @@
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D74" s="6"/>
@@ -5631,13 +5643,13 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="11" t="s">
+      <c r="C75" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E75" s="6" t="s">
@@ -5658,13 +5670,13 @@
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="11" t="s">
+      <c r="C76" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E76" s="6" t="s">
@@ -5685,10 +5697,10 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D77" s="6"/>
@@ -5710,10 +5722,10 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D78" s="6"/>
@@ -5735,13 +5747,13 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="11" t="s">
+      <c r="C79" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="6" t="s">
@@ -5762,13 +5774,13 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="11" t="s">
+      <c r="C80" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E80" s="6" t="s">
@@ -5789,13 +5801,13 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="6" t="s">
@@ -5816,13 +5828,13 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E82" s="6" t="s">
@@ -5840,10 +5852,10 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D83" s="6"/>
@@ -5865,10 +5877,10 @@
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D84" s="6"/>
@@ -5890,13 +5902,13 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="C85" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E85" s="6" t="s">
@@ -5917,16 +5929,16 @@
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G86" s="5"/>
@@ -5935,11 +5947,45 @@
         <v>Herbarium name not recognized</v>
       </c>
     </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87"/>
+    </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="9"/>
+      <c r="B88" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F88"/>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="9"/>
+      <c r="B89" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E87">

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289BA73-BA10-41FB-B8B2-058398D6A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718994C-44FA-48F1-8958-33F64CA9CA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
     <sheet name="seedStock" sheetId="2" r:id="rId2"/>
     <sheet name="TableS1" sheetId="3" r:id="rId3"/>
+    <sheet name="vouchersToSubmit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -1491,7 +1492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1524,15 +1525,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1864,12 +1871,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -3798,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3871,7 +3878,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>215</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -3898,7 +3905,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="10" t="s">
         <v>206</v>
       </c>
@@ -4018,7 +4025,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>220</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -4038,7 +4045,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="10" t="s">
         <v>206</v>
       </c>
@@ -4107,7 +4114,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>223</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4129,7 +4136,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="10" t="s">
         <v>206</v>
       </c>
@@ -4557,7 +4564,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="18" t="s">
         <v>239</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -4582,7 +4589,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="10" t="s">
         <v>206</v>
       </c>
@@ -4901,7 +4908,7 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="18" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -4928,7 +4935,7 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="10" t="s">
         <v>206</v>
       </c>
@@ -4948,7 +4955,7 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="18" t="s">
         <v>251</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -4973,7 +4980,7 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="10" t="s">
         <v>206</v>
       </c>
@@ -5578,7 +5585,7 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -5598,7 +5605,7 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="15"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="10" t="s">
         <v>206</v>
       </c>
@@ -5951,13 +5958,13 @@
       <c r="F87"/>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="16" t="s">
         <v>212</v>
       </c>
       <c r="E88" s="12" t="s">
@@ -5966,13 +5973,13 @@
       <c r="F88"/>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="16" t="s">
         <v>212</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -5980,10 +5987,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="16" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6003,4 +6010,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D76920-7A5A-4925-A59B-3FCF8C196BA4}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718994C-44FA-48F1-8958-33F64CA9CA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA879AE-006B-44E6-AEE9-D84CC6E3E800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -1532,14 +1532,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1871,12 +1871,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,7 +3878,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>215</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -3905,7 +3905,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="10" t="s">
         <v>206</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>220</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -4045,7 +4045,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="10" t="s">
         <v>206</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>223</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -4136,7 +4136,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="10" t="s">
         <v>206</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>239</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -4589,7 +4589,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="10" t="s">
         <v>206</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -4935,7 +4935,7 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="10" t="s">
         <v>206</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>251</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -4980,7 +4980,7 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="10" t="s">
         <v>206</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="19" t="s">
         <v>273</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -5605,7 +5605,7 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="18"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="10" t="s">
         <v>206</v>
       </c>
@@ -6016,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D76920-7A5A-4925-A59B-3FCF8C196BA4}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,7 +6055,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -6071,7 +6071,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>220</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -6103,23 +6103,15 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>239</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -6135,23 +6127,15 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="A7" s="17"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -6167,7 +6151,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>273</v>
       </c>
       <c r="B9" s="10" t="s">

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA879AE-006B-44E6-AEE9-D84CC6E3E800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183FD5C-6879-4986-A936-AB8EA741E4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="448">
   <si>
     <t>Name</t>
   </si>
@@ -1390,6 +1390,42 @@
   </si>
   <si>
     <t>S. suffretescens x resinosa</t>
+  </si>
+  <si>
+    <t>LEO 003</t>
+  </si>
+  <si>
+    <t>LEO 004</t>
+  </si>
+  <si>
+    <t>Suffrutescens</t>
+  </si>
+  <si>
+    <t>SUF 000</t>
+  </si>
+  <si>
+    <t>SUF 001</t>
+  </si>
+  <si>
+    <t>Plant 1 from Far South Wholesale Nursery</t>
+  </si>
+  <si>
+    <t>Plant 2 from Far South Wholesale Nursery</t>
+  </si>
+  <si>
+    <t>RAC-MS 004</t>
+  </si>
+  <si>
+    <t>Grown from RAC-MS 003</t>
+  </si>
+  <si>
+    <t>Wrightii</t>
+  </si>
+  <si>
+    <t>WRI 000</t>
+  </si>
+  <si>
+    <t>WRI 001</t>
   </si>
 </sst>
 </file>
@@ -2897,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,13 +3620,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3601,67 +3634,70 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>437</v>
       </c>
       <c r="D42" s="2">
-        <v>43403</v>
+        <v>44104</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="2">
-        <v>43588</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="2">
-        <v>43656</v>
+        <v>43403</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="2">
-        <v>43592</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+        <v>43588</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,10 +3705,10 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="2">
-        <v>43739</v>
+        <v>43656</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>32</v>
@@ -3680,122 +3716,235 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="2">
-        <v>43656</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>32</v>
+        <v>43592</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="2">
-        <v>43592</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4</v>
+        <v>43739</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+        <v>443</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2">
-        <v>43868</v>
-      </c>
-      <c r="E50" s="3">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s">
-        <v>149</v>
+        <v>43656</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2">
-        <v>43868</v>
+        <v>43592</v>
       </c>
       <c r="E51" s="3">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>438</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>439</v>
       </c>
       <c r="D52" s="2">
-        <v>43868</v>
+        <v>44104</v>
       </c>
       <c r="E52" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>67</v>
+      <c r="A53" t="s">
+        <v>438</v>
+      </c>
+      <c r="C53" t="s">
+        <v>440</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44104</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F53" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
       <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E55" s="3">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E56" s="3">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43868</v>
+      </c>
+      <c r="E57" s="3">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>445</v>
+      </c>
+      <c r="C58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44089</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>445</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
-    <sortCondition ref="C2:C54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F59">
+    <sortCondition ref="C2:C59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183FD5C-6879-4986-A936-AB8EA741E4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A6A719-AF3C-430F-A6E1-88904DD9675D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="456">
   <si>
     <t>Name</t>
   </si>
@@ -689,9 +689,6 @@
     <t>S. angulosa</t>
   </si>
   <si>
-    <t>S. angustifolia ssp. angustifolia</t>
-  </si>
-  <si>
     <t>S. angustifolia ssp. micrathum</t>
   </si>
   <si>
@@ -758,9 +755,6 @@
     <t>S. havanensis</t>
   </si>
   <si>
-    <t>S. heterophylla</t>
-  </si>
-  <si>
     <t>S. heydei</t>
   </si>
   <si>
@@ -773,9 +767,6 @@
     <t>S. hookeri</t>
   </si>
   <si>
-    <t>S. incanca</t>
-  </si>
-  <si>
     <t>S. insignis</t>
   </si>
   <si>
@@ -1008,12 +999,6 @@
   </si>
   <si>
     <t>J. K. Small s. n.</t>
-  </si>
-  <si>
-    <t>NYBG62</t>
-  </si>
-  <si>
-    <t>A. Bertschinger s. n.</t>
   </si>
   <si>
     <t>NYBG63</t>
@@ -1386,12 +1371,6 @@
     <t>S. wrightii</t>
   </si>
   <si>
-    <t>S. suffretescens</t>
-  </si>
-  <si>
-    <t>S. suffretescens x resinosa</t>
-  </si>
-  <si>
     <t>LEO 003</t>
   </si>
   <si>
@@ -1426,6 +1405,51 @@
   </si>
   <si>
     <t>WRI 001</t>
+  </si>
+  <si>
+    <t>S. angustifolia</t>
+  </si>
+  <si>
+    <t>FLAS01</t>
+  </si>
+  <si>
+    <t>Paul Corogin SB104</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>FLAS02</t>
+  </si>
+  <si>
+    <t>D. B. Wand 6711</t>
+  </si>
+  <si>
+    <t>FLAS04</t>
+  </si>
+  <si>
+    <t>Nancy Coile 5213</t>
+  </si>
+  <si>
+    <t>S. incana</t>
+  </si>
+  <si>
+    <t>FLAS05</t>
+  </si>
+  <si>
+    <t>Kimberely Gulledge 25</t>
+  </si>
+  <si>
+    <t>FLAS06</t>
+  </si>
+  <si>
+    <t>Hillary M. Cherry 270</t>
+  </si>
+  <si>
+    <t>FLAS07</t>
+  </si>
+  <si>
+    <t>s. n.</t>
   </si>
 </sst>
 </file>
@@ -1493,18 +1517,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1528,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1554,13 +1572,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1571,11 +1585,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B26A3BC-753B-4215-92EB-E0126892F519}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1907,12 +1928,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -2935,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3623,7 +3644,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3637,7 +3658,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D42" s="2">
         <v>44104</v>
@@ -3747,7 +3768,7 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D49" s="2">
         <v>44104</v>
@@ -3756,7 +3777,7 @@
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3792,10 +3813,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C52" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D52" s="2">
         <v>44104</v>
@@ -3804,15 +3825,15 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C53" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D53" s="2">
         <v>44104</v>
@@ -3821,7 +3842,7 @@
         <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3894,10 +3915,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D58" s="2">
         <v>44089</v>
@@ -3906,15 +3927,15 @@
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C59" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D59" s="2">
         <v>44104</v>
@@ -3923,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3952,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3972,7 +3993,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>210</v>
@@ -3984,23 +4005,23 @@
         <v>211</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -4010,13 +4031,13 @@
         <v>213</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H2" t="str">
         <f>IF(E2="Steere Herbarium, NY, USA", CONCATENATE(G2, " (NY)"), IF(E2="University of Florida Herbarium, FL, USA", CONCATENATE(G2, " (FLAS)"), IF(E2="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G2, " (SWU)"), "Herbarium name not recognized")))</f>
@@ -4027,7 +4048,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>215</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4037,16 +4058,16 @@
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">IF(E3="Steere Herbarium, NY, USA", CONCATENATE(G3, " (NY)"), IF(E3="University of Florida Herbarium, FL, USA", CONCATENATE(G3, " (FLAS)"), IF(E3="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G3, " (SWU)"), "Herbarium name not recognized")))</f>
+        <f t="shared" ref="H3:H64" si="0">IF(E3="Steere Herbarium, NY, USA", CONCATENATE(G3, " (NY)"), IF(E3="University of Florida Herbarium, FL, USA", CONCATENATE(G3, " (FLAS)"), IF(E3="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G3, " (SWU)"), "Herbarium name not recognized")))</f>
         <v>M. Churadze 1007 (NY)</v>
       </c>
     </row>
@@ -4054,15 +4075,15 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>424</v>
+      <c r="E4" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" t="str">
@@ -4074,21 +4095,23 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="16" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -4099,21 +4122,23 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>217</v>
+      <c r="B6" s="16" t="s">
+        <v>441</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -4124,21 +4149,23 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>218</v>
+      <c r="B7" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -4149,24 +4176,26 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>219</v>
+      <c r="B8" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E8="Steere Herbarium, NY, USA", CONCATENATE(G8, " (NY)"), IF(E8="University of Florida Herbarium, FL, USA", CONCATENATE(G8, " (FLAS)"), IF(E8="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G8, " (SWU)"), "Herbarium name not recognized")))</f>
         <v>N. D. Atwood 28625 (NY)</v>
       </c>
     </row>
@@ -4174,97 +4203,107 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="B9" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>443</v>
+      </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> (FLAS)</v>
+        <f t="shared" ref="H9" si="1">IF(E9="Steere Herbarium, NY, USA", CONCATENATE(G9, " (NY)"), IF(E9="University of Florida Herbarium, FL, USA", CONCATENATE(G9, " (FLAS)"), IF(E9="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G9, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>Paul Corogin SB104 (FLAS)</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>446</v>
+      </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>Herbarium name not recognized</v>
+        <f>IF(E10="Steere Herbarium, NY, USA", CONCATENATE(G10, " (NY)"), IF(E10="University of Florida Herbarium, FL, USA", CONCATENATE(G10, " (FLAS)"), IF(E10="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G10, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>D. B. Wand 6711 (FLAS)</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>221</v>
-      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>399</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>J. T. Howell 38532 (NY)</v>
+        <f>IF(E11="Steere Herbarium, NY, USA", CONCATENATE(G11, " (NY)"), IF(E11="University of Florida Herbarium, FL, USA", CONCATENATE(G11, " (FLAS)"), IF(E11="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G11, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>222</v>
+      <c r="B12" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>Herbarium name not recognized</v>
+        <v>J. T. Howell 38532 (NY)</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>223</v>
+      <c r="B13" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>206</v>
@@ -4272,8 +4311,8 @@
       <c r="D13" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>424</v>
+      <c r="E13" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" t="str">
@@ -4285,7 +4324,9 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="C14" s="10" t="s">
         <v>206</v>
       </c>
@@ -4293,10 +4334,10 @@
         <v>212</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -4307,21 +4348,23 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>224</v>
+      <c r="B15" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E15" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -4332,21 +4375,23 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>225</v>
+      <c r="B16" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E16" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -4357,24 +4402,26 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>226</v>
+      <c r="B17" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E17="Steere Herbarium, NY, USA", CONCATENATE(G17, " (NY)"), IF(E17="University of Florida Herbarium, FL, USA", CONCATENATE(G17, " (FLAS)"), IF(E17="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G17, " (SWU)"), "Herbarium name not recognized")))</f>
         <v>R. Olmstead 434 (NY)</v>
       </c>
     </row>
@@ -4382,21 +4429,23 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>227</v>
+      <c r="B18" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E18" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -4407,8 +4456,8 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>228</v>
+      <c r="B19" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>207</v>
@@ -4417,13 +4466,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -4434,8 +4483,8 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>229</v>
+      <c r="B20" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>207</v>
@@ -4444,13 +4493,13 @@
         <v>213</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -4461,8 +4510,8 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>230</v>
+      <c r="B21" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>206</v>
@@ -4471,10 +4520,10 @@
         <v>212</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4485,21 +4534,23 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>231</v>
+      <c r="B22" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E22" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -4510,21 +4561,23 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>232</v>
+      <c r="B23" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E23" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -4535,28 +4588,35 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>233</v>
+      <c r="B24" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G24" s="13"/>
+        <v>389</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>448</v>
+      </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> (FLAS)</v>
+        <v>Nancy Coile 5213 (FLAS)</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>234</v>
+      <c r="B25" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>207</v>
@@ -4565,13 +4625,13 @@
         <v>213</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -4582,8 +4642,8 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>235</v>
+      <c r="B26" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>207</v>
@@ -4592,13 +4652,13 @@
         <v>213</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -4609,8 +4669,8 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>315</v>
+      <c r="B27" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>207</v>
@@ -4619,13 +4679,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -4636,8 +4696,8 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>236</v>
+      <c r="B28" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>207</v>
@@ -4646,13 +4706,13 @@
         <v>213</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -4663,21 +4723,23 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>237</v>
+      <c r="B29" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -4688,21 +4750,23 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>238</v>
+      <c r="B30" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E30" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -4713,21 +4777,23 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>239</v>
+      <c r="B31" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>444</v>
+      </c>
       <c r="E31" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -4738,15 +4804,15 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>424</v>
+      <c r="E32" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" t="str">
@@ -4758,341 +4824,360 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>240</v>
+      <c r="B33" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E33" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>A. Bertschinger s. n. (NY)</v>
+        <v>W. Koelz 6242 (NY)</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>241</v>
+      <c r="B34" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E34" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>W. Koelz 6242 (NY)</v>
+        <v>R. D. Worthington 12501 (NY)</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>242</v>
+      <c r="B35" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="E35" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Worthington 12501 (NY)</v>
+        <v>G. Schoolcraft 1222 (NY)</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>243</v>
+      <c r="B36" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>G. Schoolcraft 1222 (NY)</v>
+        <v>L. O. Willioms et al. 28585 (NY)</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>244</v>
+      <c r="B37" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>L. O. Willioms et al. 28585 (NY)</v>
+        <v>R. D. Thomas 150388 (NY)</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>245</v>
+      <c r="B38" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>206</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Thomas 150388 (NY)</v>
+        <v>S. Kim &amp; S. T. Lee 2015-0298 (SWU)</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>430</v>
+      <c r="B39" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim &amp; S. T. Lee 2015-0298 (SWU)</v>
+        <v>S. Kim 2015-0110 (SWU)</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>246</v>
+      <c r="B40" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>427</v>
+        <v>389</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>451</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim 2015-0110 (SWU)</v>
+        <v>Kimberely Gulledge 25 (FLAS)</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>247</v>
+      <c r="B41" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="E41" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G41" s="13"/>
+        <v>390</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> (FLAS)</v>
+        <v>A. M. Brenes s. n. (NY)</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>432</v>
+      <c r="B42" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>213</v>
+      <c r="D42" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>A. M. Brenes s. n. (NY)</v>
+        <v>A. Charpin et al. s. n. (NY)</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>248</v>
+      <c r="B43" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E43" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>A. Charpin et al. s. n. (NY)</v>
+        <v>S. K. Lau 1915 (NY)</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>249</v>
+      <c r="B44" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E44" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>S. K. Lau 1915 (NY)</v>
+        <v>G. F. Buddell II 2352 (NY)</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>250</v>
+      <c r="B45" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>4</v>
+      <c r="D45" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>G. F. Buddell II 2352 (NY)</v>
+        <v>J. C. Arthwz s. n. (NY)</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>424</v>
+      <c r="E46" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" t="str">
@@ -5104,304 +5189,330 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>251</v>
+      <c r="B47" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E47" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>J. C. Arthwz s. n. (NY)</v>
+        <v>L. Maplcoba s. n. (NY)</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="16" t="s">
+        <v>250</v>
+      </c>
       <c r="C48" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G48" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>Herbarium name not recognized</v>
+        <v>J. J. Castillo &amp; J. M. Vargas 2722 (NY)</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>252</v>
+      <c r="B49" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E49" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>L. Maplcoba s. n. (NY)</v>
+        <v>Jorge A. Molina 30005 (NY)</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>253</v>
+      <c r="B50" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>J. J. Castillo &amp; J. M. Vargas 2722 (NY)</v>
+        <v>Hinton et al. 21760 (NY)</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>254</v>
+      <c r="B51" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="10" t="s">
+        <v>212</v>
+      </c>
       <c r="E51" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>Jorge A. Molina 30005 (NY)</v>
+        <v>H. D. Ripley 14966 (NY)</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>255</v>
+      <c r="B52" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>213</v>
+      <c r="D52" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F52" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>Hinton et al. 21760 (NY)</v>
+        <v>Assadi, Edmondson &amp; Miller 2135 (NY)</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>256</v>
+      <c r="B53" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>212</v>
+      <c r="D53" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>H. D. Ripley 14966 (NY)</v>
+        <v>D. S. Correll &amp; H. B. Correll 51703 (NY)</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>257</v>
-      </c>
+      <c r="B54" s="18"/>
       <c r="C54" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E54" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>351</v>
+        <v>452</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>453</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>Assadi, Edmondson &amp; Miller 2135 (NY)</v>
+        <v>Hillary M. Cherry 270 (FLAS)</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>258</v>
+      <c r="B55" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E55" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>D. S. Correll &amp; H. B. Correll 51703 (NY)</v>
+        <v>C. L. Lundell 14978 (NY)</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>258</v>
+      <c r="B56" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E56" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G56" s="13"/>
+        <v>390</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> (FLAS)</v>
+        <v>L. H. Cramer 4871 (NY)</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>259</v>
+      <c r="B57" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E57" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>C. L. Lundell 14978 (NY)</v>
+        <v>E. Serowa &amp; E. Ryschowa s. n. (NY)</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>260</v>
+      <c r="B58" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E58" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>L. H. Cramer 4871 (NY)</v>
+        <v>R. D. Thomas et al. 170488 (NY)</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>261</v>
+      <c r="B59" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>207</v>
@@ -5410,501 +5521,528 @@
         <v>213</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>E. Serowa &amp; E. Ryschowa s. n. (NY)</v>
+        <v>R. D. Thomas &amp; C. Slaughter 103883 (NY)</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>262</v>
+      <c r="B60" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>4</v>
+      <c r="D60" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Thomas et al. 170488 (NY)</v>
+        <v>P. Jaeger 8796 (NY)</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>263</v>
+      <c r="B61" s="16" t="s">
+        <v>424</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Thomas &amp; C. Slaughter 103883 (NY)</v>
+        <v>S. Kim 2015-0268 (SWU)</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>264</v>
+      <c r="B62" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E62" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>P. Jaeger 8796 (NY)</v>
+        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>429</v>
+      <c r="B63" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim 2015-0268 (SWU)</v>
+        <v>K. H. Rechinger 686 (NY)</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>265</v>
+      <c r="B64" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E64" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
+        <v>D. S. Correll &amp; H. B. Correll 30562 (NY)</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>266</v>
+      <c r="B65" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E65" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="0"/>
-        <v>K. H. Rechinger 686 (NY)</v>
+        <f t="shared" ref="H65:H83" si="2">IF(E65="Steere Herbarium, NY, USA", CONCATENATE(G65, " (NY)"), IF(E65="University of Florida Herbarium, FL, USA", CONCATENATE(G65, " (FLAS)"), IF(E65="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G65, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>W. Koelz 21180 (NY)</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>267</v>
+      <c r="B66" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>213</v>
+      <c r="D66" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="0"/>
-        <v>D. S. Correll &amp; H. B. Correll 30562 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>L. Janczenko s. n. (NY)</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>268</v>
+      <c r="B67" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E67" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H85" si="1">IF(E67="Steere Herbarium, NY, USA", CONCATENATE(G67, " (NY)"), IF(E67="University of Florida Herbarium, FL, USA", CONCATENATE(G67, " (FLAS)"), IF(E67="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G67, " (SWU)"), "Herbarium name not recognized")))</f>
-        <v>W. Koelz 21180 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>R. Kral s. n. (NY)</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>269</v>
+      <c r="B68" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E68" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="1"/>
-        <v>L. Janczenko s. n. (NY)</v>
+        <f t="shared" si="2"/>
+        <v>R. Schischkin et al. s. n. (NY)</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>270</v>
+      <c r="B69" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E69" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="1"/>
-        <v>R. Kral s. n. (NY)</v>
+        <f t="shared" si="2"/>
+        <v>A. M. Brenes s. n. (NY)</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>271</v>
+      <c r="B70" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>2</v>
+      <c r="D70" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>371</v>
+        <v>454</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="1"/>
-        <v>R. Schischkin et al. s. n. (NY)</v>
+        <f t="shared" si="2"/>
+        <v>s. n. (FLAS)</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="B71" s="18"/>
       <c r="C71" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>410</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G71" s="5"/>
       <c r="H71" t="str">
-        <f t="shared" si="1"/>
-        <v>A. M. Brenes s. n. (NY)</v>
+        <f t="shared" si="2"/>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>273</v>
+      <c r="B72" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E72" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G72" s="13"/>
+        <v>390</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> (FLAS)</v>
+        <f t="shared" si="2"/>
+        <v>A. Donmez 3627 (NY)</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="16" t="s">
+        <v>272</v>
+      </c>
       <c r="C73" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G73" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
-        <v>Herbarium name not recognized</v>
+        <f t="shared" si="2"/>
+        <v>G. C. Freeman &amp; R. E. Brooks 3682 (NY)</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>274</v>
+      <c r="B74" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E74" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
-        <v>A. Donmez 3627 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>S. L. Welsh 20585 (NY)</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>275</v>
+      <c r="B75" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>213</v>
+      <c r="D75" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
-        <v>G. C. Freeman &amp; R. E. Brooks 3682 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>H. H. Iltis et al. 307 (NY)</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>276</v>
+      <c r="B76" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>213</v>
+      <c r="D76" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
-        <v>S. L. Welsh 20585 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>C. G. Pringle s. n. (NY)</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>277</v>
+      <c r="B77" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E77" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
-        <v>H. H. Iltis et al. 307 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>J. J. Carter s. n. (NY)</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>278</v>
+      <c r="B78" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E78" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
-        <v>C. G. Pringle s. n. (NY)</v>
+        <f t="shared" si="2"/>
+        <v>S. D. White 4380 (NY)</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>279</v>
+      <c r="B79" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>207</v>
@@ -5913,248 +6051,192 @@
         <v>4</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
-        <v>J. J. Carter s. n. (NY)</v>
+        <f t="shared" si="2"/>
+        <v>A. Villegas H. 00063 (NY)</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>280</v>
+      <c r="B80" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
-        <v>S. D. White 4380 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>S. Kim 20140705 (SWU)</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>281</v>
+      <c r="B81" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>4</v>
+      <c r="D81" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
-        <v>A. Villegas H. 00063 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>J. L. Reveal 3390 (NY)</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>282</v>
+      <c r="B82" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
-        <v>S. Kim 20140705 (SWU)</v>
+        <f t="shared" si="2"/>
+        <v>C. Hamel &amp; R. S. Toroes 767 (NY)</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>283</v>
+      <c r="B83" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E83" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="1"/>
-        <v>J. L. Reveal 3390 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>R. D. Worthington 13323 (NY)</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>284</v>
+      <c r="B84" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>422</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G84" s="5"/>
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
-        <v>C. Hamel &amp; R. S. Toroes 767 (NY)</v>
+        <f>IF(E84="Steere Herbarium, NY, USA", CONCATENATE(G84, " (NY)"), IF(E84="University of Florida Herbarium, FL, USA", CONCATENATE(G84, " (FLAS)"), IF(E84="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G84, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>390</v>
-      </c>
+      <c r="B85" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F85"/>
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
-        <v>R. D. Worthington 13323 (NY)</v>
+        <f>IF(E85="Steere Herbarium, NY, USA", CONCATENATE(G85, " (NY)"), IF(E85="University of Florida Herbarium, FL, USA", CONCATENATE(G85, " (FLAS)"), IF(E85="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G85, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="H86" t="str">
-        <f>IF(E86="Steere Herbarium, NY, USA", CONCATENATE(G86, " (NY)"), IF(E86="University of Florida Herbarium, FL, USA", CONCATENATE(G86, " (FLAS)"), IF(E86="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G86, " (SWU)"), "Herbarium name not recognized")))</f>
-        <v>Herbarium name not recognized</v>
-      </c>
+      <c r="F86"/>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F87"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>207</v>
-      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E87">
-    <sortCondition ref="B2:B87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E85">
+    <sortCondition ref="B2:B85"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B9:B10"/>
+  <mergeCells count="6">
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B70:B71"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B53:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6191,20 +6273,20 @@
         <v>211</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -6214,14 +6296,14 @@
         <v>212</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>220</v>
+      <c r="A3" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>206</v>
@@ -6230,14 +6312,14 @@
         <v>212</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>222</v>
+      <c r="A4" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>206</v>
@@ -6246,13 +6328,13 @@
         <v>212</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="6"/>
@@ -6260,8 +6342,8 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>239</v>
+      <c r="A6" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>206</v>
@@ -6270,13 +6352,13 @@
         <v>212</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="6"/>
@@ -6284,8 +6366,8 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>251</v>
+      <c r="A8" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>206</v>
@@ -6294,14 +6376,14 @@
         <v>212</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>273</v>
+      <c r="A9" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>206</v>
@@ -6310,14 +6392,14 @@
         <v>212</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>286</v>
+      <c r="A10" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>206</v>
@@ -6326,23 +6408,23 @@
         <v>212</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>212</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A6A719-AF3C-430F-A6E1-88904DD9675D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783507EF-FE3D-4DFC-8F86-8B9EDEB6FE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="456">
   <si>
     <t>Name</t>
   </si>
@@ -1588,15 +1588,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1928,12 +1928,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -3973,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4048,7 +4048,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>215</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4067,7 +4067,7 @@
         <v>391</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H64" si="0">IF(E3="Steere Herbarium, NY, USA", CONCATENATE(G3, " (NY)"), IF(E3="University of Florida Herbarium, FL, USA", CONCATENATE(G3, " (FLAS)"), IF(E3="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G3, " (SWU)"), "Herbarium name not recognized")))</f>
+        <f t="shared" ref="H3:H63" si="0">IF(E3="Steere Herbarium, NY, USA", CONCATENATE(G3, " (NY)"), IF(E3="University of Florida Herbarium, FL, USA", CONCATENATE(G3, " (FLAS)"), IF(E3="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G3, " (SWU)"), "Herbarium name not recognized")))</f>
         <v>M. Churadze 1007 (NY)</v>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="10" t="s">
         <v>206</v>
       </c>
@@ -4203,22 +4203,22 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>219</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>389</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>443</v>
       </c>
       <c r="H9" t="str">
@@ -4230,7 +4230,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="10" t="s">
         <v>207</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="F10" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>446</v>
       </c>
       <c r="H10" t="str">
@@ -4255,20 +4255,27 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="C11" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="H11" t="str">
-        <f>IF(E11="Steere Herbarium, NY, USA", CONCATENATE(G11, " (NY)"), IF(E11="University of Florida Herbarium, FL, USA", CONCATENATE(G11, " (FLAS)"), IF(E11="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G11, " (SWU)"), "Herbarium name not recognized")))</f>
-        <v>Herbarium name not recognized</v>
+        <f t="shared" si="0"/>
+        <v>J. T. Howell 38532 (NY)</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4276,34 +4283,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>394</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>J. T. Howell 38532 (NY)</v>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>221</v>
+      <c r="B13" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>206</v>
@@ -4311,37 +4313,42 @@
       <c r="D13" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>Herbarium name not recognized</v>
+        <v>S. Kim 2019-056 (SWU)</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>222</v>
+      <c r="B14" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim 2019-056 (SWU)</v>
+        <v>G. B. Hinton 1086 (NY)</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4349,26 +4356,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>G. B. Hinton 1086 (NY)</v>
+        <v>S. P. Churchill 7376 (NY)</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4376,7 +4383,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>207</v>
@@ -4388,14 +4395,14 @@
         <v>390</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>S. P. Churchill 7376 (NY)</v>
+        <f>IF(E16="Steere Herbarium, NY, USA", CONCATENATE(G16, " (NY)"), IF(E16="University of Florida Herbarium, FL, USA", CONCATENATE(G16, " (FLAS)"), IF(E16="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G16, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>R. Olmstead 434 (NY)</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,7 +4410,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>207</v>
@@ -4415,14 +4422,14 @@
         <v>390</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(E17="Steere Herbarium, NY, USA", CONCATENATE(G17, " (NY)"), IF(E17="University of Florida Herbarium, FL, USA", CONCATENATE(G17, " (FLAS)"), IF(E17="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G17, " (SWU)"), "Herbarium name not recognized")))</f>
-        <v>R. Olmstead 434 (NY)</v>
+        <f t="shared" si="0"/>
+        <v>D. Cardenas et al. 42257 (NY)</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4430,26 +4437,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>D. Cardenas et al. 42257 (NY)</v>
+        <v>T. S. Quedensley 10037 (NY)</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,26 +4464,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>T. S. Quedensley 10037 (NY)</v>
+        <v>A. Cronquist 8834 (NY)</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4484,26 +4491,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>A. Cronquist 8834 (NY)</v>
+        <v>S. Kim 2019-065 (SWU)</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4511,23 +4515,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>418</v>
+        <v>306</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim 2019-065 (SWU)</v>
+        <v>A. A. Bullock 740 (NY)</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4535,26 +4542,26 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>A. A. Bullock 740 (NY)</v>
+        <v>L. C. Higgins 17229 (NY)</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,26 +4569,26 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>399</v>
+        <v>447</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>448</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>L. C. Higgins 17229 (NY)</v>
+        <v>Nancy Coile 5213 (FLAS)</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4589,26 +4596,26 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>4</v>
+      <c r="D24" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>448</v>
+        <v>308</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>Nancy Coile 5213 (FLAS)</v>
+        <v>C. E. Garton 22860 (NY)</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,7 +4623,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>207</v>
@@ -4628,14 +4635,14 @@
         <v>390</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>C. E. Garton 22860 (NY)</v>
+        <v>H. et al. 11073 (NY)</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4643,26 +4650,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>H. et al. 11073 (NY)</v>
+        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4670,26 +4677,26 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
+        <v>D. Erskine &amp; A. J. Smith 2118 (NY)</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4697,26 +4704,26 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>213</v>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>D. Erskine &amp; A. J. Smith 2118 (NY)</v>
+        <v>R. Kral s. n. (NY)</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4724,100 +4731,100 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>R. Kral s. n. (NY)</v>
+        <v>D. Alvarez 11028 (NY)</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>237</v>
+      <c r="B30" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="10" t="s">
         <v>444</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>D. Alvarez 11028 (NY)</v>
+        <v>J. K. Small s. n. (NY)</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>238</v>
-      </c>
+      <c r="B31" s="20"/>
       <c r="C31" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>320</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>J. K. Small s. n. (NY)</v>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="16" t="s">
+        <v>239</v>
+      </c>
       <c r="C32" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G32" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>Herbarium name not recognized</v>
+        <v>W. Koelz 6242 (NY)</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,26 +4832,26 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>W. Koelz 6242 (NY)</v>
+        <v>R. D. Worthington 12501 (NY)</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,26 +4859,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>444</v>
+        <v>213</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Worthington 12501 (NY)</v>
+        <v>G. Schoolcraft 1222 (NY)</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4879,26 +4886,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>G. Schoolcraft 1222 (NY)</v>
+        <v>L. O. Willioms et al. 28585 (NY)</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4906,26 +4913,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>326</v>
+        <v>404</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>L. O. Willioms et al. 28585 (NY)</v>
+        <v>R. D. Thomas 150388 (NY)</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,26 +4940,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>4</v>
+        <v>206</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Thomas 150388 (NY)</v>
+        <v>S. Kim &amp; S. T. Lee 2015-0298 (SWU)</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4960,23 +4964,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="10" t="s">
         <v>212</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>393</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim &amp; S. T. Lee 2015-0298 (SWU)</v>
+        <v>S. Kim 2015-0110 (SWU)</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,23 +4988,26 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>422</v>
+        <v>389</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>451</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim 2015-0110 (SWU)</v>
+        <v>Kimberely Gulledge 25 (FLAS)</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,26 +5015,26 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>4</v>
+      <c r="D40" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>451</v>
+        <v>328</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>Kimberely Gulledge 25 (FLAS)</v>
+        <v>A. M. Brenes s. n. (NY)</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,26 +5042,26 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>213</v>
+      <c r="D41" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>A. M. Brenes s. n. (NY)</v>
+        <v>A. Charpin et al. s. n. (NY)</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5062,34 +5069,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>444</v>
+      <c r="D42" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>A. Charpin et al. s. n. (NY)</v>
+        <v>S. K. Lau 1915 (NY)</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>246</v>
+      <c r="B43" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>207</v>
@@ -5101,88 +5108,88 @@
         <v>390</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>S. K. Lau 1915 (NY)</v>
+        <v>G. F. Buddell II 2352 (NY)</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>247</v>
+      <c r="B44" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>4</v>
+      <c r="D44" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>G. F. Buddell II 2352 (NY)</v>
+        <v>J. C. Arthwz s. n. (NY)</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>248</v>
-      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>334</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>J. C. Arthwz s. n. (NY)</v>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="16" t="s">
+        <v>249</v>
+      </c>
       <c r="C46" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>Herbarium name not recognized</v>
+        <v>L. Maplcoba s. n. (NY)</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5190,26 +5197,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>4</v>
+      <c r="D47" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>L. Maplcoba s. n. (NY)</v>
+        <v>J. J. Castillo &amp; J. M. Vargas 2722 (NY)</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5217,26 +5224,26 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>213</v>
+        <v>444</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>J. J. Castillo &amp; J. M. Vargas 2722 (NY)</v>
+        <v>Jorge A. Molina 30005 (NY)</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,26 +5251,26 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>444</v>
+      <c r="D49" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>Jorge A. Molina 30005 (NY)</v>
+        <v>Hinton et al. 21760 (NY)</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,26 +5278,26 @@
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>Hinton et al. 21760 (NY)</v>
+        <v>H. D. Ripley 14966 (NY)</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5298,62 +5305,60 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>212</v>
+      <c r="D51" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>H. D. Ripley 14966 (NY)</v>
+        <v>Assadi, Edmondson &amp; Miller 2135 (NY)</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>254</v>
+      <c r="B52" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>Assadi, Edmondson &amp; Miller 2135 (NY)</v>
+        <v>D. S. Correll &amp; H. B. Correll 51703 (NY)</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>255</v>
-      </c>
+      <c r="B53" s="20"/>
       <c r="C53" s="10" t="s">
         <v>207</v>
       </c>
@@ -5361,42 +5366,44 @@
         <v>4</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>408</v>
+        <v>452</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>453</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>D. S. Correll &amp; H. B. Correll 51703 (NY)</v>
+        <v>Hillary M. Cherry 270 (FLAS)</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="18"/>
+      <c r="B54" s="16" t="s">
+        <v>256</v>
+      </c>
       <c r="C54" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>453</v>
+        <v>348</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>Hillary M. Cherry 270 (FLAS)</v>
+        <v>C. L. Lundell 14978 (NY)</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5404,26 +5411,26 @@
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>C. L. Lundell 14978 (NY)</v>
+        <v>L. H. Cramer 4871 (NY)</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,26 +5438,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>4</v>
+      <c r="D56" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>L. H. Cramer 4871 (NY)</v>
+        <v>E. Serowa &amp; E. Ryschowa s. n. (NY)</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5458,26 +5465,26 @@
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>E. Serowa &amp; E. Ryschowa s. n. (NY)</v>
+        <v>R. D. Thomas et al. 170488 (NY)</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5485,26 +5492,26 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Thomas et al. 170488 (NY)</v>
+        <v>R. D. Thomas &amp; C. Slaughter 103883 (NY)</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5512,26 +5519,26 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>213</v>
+      <c r="D59" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>R. D. Thomas &amp; C. Slaughter 103883 (NY)</v>
+        <v>P. Jaeger 8796 (NY)</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5539,26 +5546,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>261</v>
+        <v>424</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>444</v>
+        <v>206</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>P. Jaeger 8796 (NY)</v>
+        <v>S. Kim 2015-0268 (SWU)</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5566,23 +5570,26 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>424</v>
+        <v>262</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>S. Kim 2015-0268 (SWU)</v>
+        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5590,26 +5597,26 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>H. Field &amp; Y. Lazar s. n. (NY)</v>
+        <v>K. H. Rechinger 686 (NY)</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,26 +5624,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>444</v>
+      <c r="D63" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>K. H. Rechinger 686 (NY)</v>
+        <v>D. S. Correll &amp; H. B. Correll 30562 (NY)</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5644,26 +5651,26 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>213</v>
+      <c r="D64" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
-        <v>D. S. Correll &amp; H. B. Correll 30562 (NY)</v>
+        <f t="shared" ref="H64:H82" si="2">IF(E64="Steere Herbarium, NY, USA", CONCATENATE(G64, " (NY)"), IF(E64="University of Florida Herbarium, FL, USA", CONCATENATE(G64, " (FLAS)"), IF(E64="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G64, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>W. Koelz 21180 (NY)</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5671,7 +5678,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>207</v>
@@ -5683,14 +5690,14 @@
         <v>390</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H83" si="2">IF(E65="Steere Herbarium, NY, USA", CONCATENATE(G65, " (NY)"), IF(E65="University of Florida Herbarium, FL, USA", CONCATENATE(G65, " (FLAS)"), IF(E65="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G65, " (SWU)"), "Herbarium name not recognized")))</f>
-        <v>W. Koelz 21180 (NY)</v>
+        <f t="shared" si="2"/>
+        <v>L. Janczenko s. n. (NY)</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5698,26 +5705,26 @@
         <v>65</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
-        <v>L. Janczenko s. n. (NY)</v>
+        <v>R. Kral s. n. (NY)</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5725,26 +5732,26 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>4</v>
+      <c r="D67" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="2"/>
-        <v>R. Kral s. n. (NY)</v>
+        <v>R. Schischkin et al. s. n. (NY)</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5752,34 +5759,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>2</v>
+      <c r="D68" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
-        <v>R. Schischkin et al. s. n. (NY)</v>
+        <v>A. M. Brenes s. n. (NY)</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="16" t="s">
-        <v>269</v>
+      <c r="B69" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>207</v>
@@ -5788,64 +5795,64 @@
         <v>444</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>405</v>
+        <v>454</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>455</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
-        <v>A. M. Brenes s. n. (NY)</v>
+        <v>s. n. (FLAS)</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>270</v>
-      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>455</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G70" s="5"/>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
-        <v>s. n. (FLAS)</v>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="C71" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G71" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
-        <v>Herbarium name not recognized</v>
+        <v>A. Donmez 3627 (NY)</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5853,26 +5860,26 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>4</v>
+      <c r="D72" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
-        <v>A. Donmez 3627 (NY)</v>
+        <v>G. C. Freeman &amp; R. E. Brooks 3682 (NY)</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5880,7 +5887,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>207</v>
@@ -5892,14 +5899,14 @@
         <v>390</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
-        <v>G. C. Freeman &amp; R. E. Brooks 3682 (NY)</v>
+        <v>S. L. Welsh 20585 (NY)</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5907,26 +5914,26 @@
         <v>73</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>213</v>
+      <c r="D74" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
-        <v>S. L. Welsh 20585 (NY)</v>
+        <v>H. H. Iltis et al. 307 (NY)</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5934,7 +5941,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>207</v>
@@ -5946,14 +5953,14 @@
         <v>390</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="2"/>
-        <v>H. H. Iltis et al. 307 (NY)</v>
+        <v>C. G. Pringle s. n. (NY)</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,26 +5968,26 @@
         <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>444</v>
+      <c r="D76" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="2"/>
-        <v>C. G. Pringle s. n. (NY)</v>
+        <v>J. J. Carter s. n. (NY)</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5988,26 +5995,26 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="2"/>
-        <v>J. J. Carter s. n. (NY)</v>
+        <v>S. D. White 4380 (NY)</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,26 +6022,26 @@
         <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="2"/>
-        <v>S. D. White 4380 (NY)</v>
+        <v>A. Villegas H. 00063 (NY)</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,26 +6049,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="2"/>
-        <v>A. Villegas H. 00063 (NY)</v>
+        <v>S. Kim 20140705 (SWU)</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6069,23 +6073,26 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="2"/>
-        <v>S. Kim 20140705 (SWU)</v>
+        <v>J. L. Reveal 3390 (NY)</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6093,26 +6100,26 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="2"/>
-        <v>J. L. Reveal 3390 (NY)</v>
+        <v>C. Hamel &amp; R. S. Toroes 767 (NY)</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6120,26 +6127,26 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>4</v>
+      <c r="D82" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="2"/>
-        <v>C. Hamel &amp; R. S. Toroes 767 (NY)</v>
+        <v>R. D. Worthington 13323 (NY)</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6147,96 +6154,69 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>385</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G83" s="5"/>
       <c r="H83" t="str">
-        <f t="shared" si="2"/>
-        <v>R. D. Worthington 13323 (NY)</v>
+        <f>IF(E83="Steere Herbarium, NY, USA", CONCATENATE(G83, " (NY)"), IF(E83="University of Florida Herbarium, FL, USA", CONCATENATE(G83, " (FLAS)"), IF(E83="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G83, " (SWU)"), "Herbarium name not recognized")))</f>
+        <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="14" t="s">
         <v>212</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="F84"/>
       <c r="H84" t="str">
         <f>IF(E84="Steere Herbarium, NY, USA", CONCATENATE(G84, " (NY)"), IF(E84="University of Florida Herbarium, FL, USA", CONCATENATE(G84, " (FLAS)"), IF(E84="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G84, " (SWU)"), "Herbarium name not recognized")))</f>
         <v>Herbarium name not recognized</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>84</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>419</v>
-      </c>
       <c r="F85"/>
-      <c r="H85" t="str">
-        <f>IF(E85="Steere Herbarium, NY, USA", CONCATENATE(G85, " (NY)"), IF(E85="University of Florida Herbarium, FL, USA", CONCATENATE(G85, " (FLAS)"), IF(E85="Sungshin Herbarium, Seoul, Republic of Korea", CONCATENATE(G85, " (SWU)"), "Herbarium name not recognized")))</f>
-        <v>Herbarium name not recognized</v>
-      </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F86"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E85">
-    <sortCondition ref="B2:B85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E84">
+    <sortCondition ref="B2:B84"/>
   </sortState>
   <mergeCells count="6">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="25" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/data/scutellariaList.xlsx
+++ b/data/scutellariaList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bca08_000\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783507EF-FE3D-4DFC-8F86-8B9EDEB6FE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE0D4E-FCCB-4E00-9F63-86EB469356FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{D81E299B-7B47-4EAF-8A60-AAE40AE3D000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplesAnalyzed" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="458">
   <si>
     <t>Name</t>
   </si>
@@ -1450,6 +1450,12 @@
   </si>
   <si>
     <t>s. n.</t>
+  </si>
+  <si>
+    <t>BAI 003</t>
+  </si>
+  <si>
+    <t>plant-world-seeds.com; from Swathi lab</t>
   </si>
 </sst>
 </file>
@@ -2954,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF67D2B-BFB7-4490-9B6D-4F3EF1324AEE}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,22 +3188,25 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>456</v>
       </c>
       <c r="D14" s="2">
-        <v>43779</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>44166</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,10 +3214,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2">
-        <v>43686</v>
+        <v>43779</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>32</v>
@@ -3222,7 +3231,10 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43686</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
@@ -3235,17 +3247,14 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,47 +3262,47 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43656</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
+        <v>130</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,16 +3310,13 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43409</v>
+        <v>110</v>
       </c>
       <c r="E21" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -3318,19 +3324,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43409</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,30 +3350,30 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43565</v>
+        <v>111</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2">
-        <v>43868</v>
+        <v>43565</v>
       </c>
       <c r="E24" s="3">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,7 +3381,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2">
         <v>43868</v>
@@ -3389,7 +3398,7 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="2">
         <v>43868</v>
@@ -3403,36 +3412,36 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>155</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43868</v>
       </c>
       <c r="E27" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>145</v>
       </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
       <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43868</v>
+        <v>115</v>
       </c>
       <c r="E28" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,7 +3449,7 @@
         <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="2">
         <v>43868</v>
@@ -3457,7 +3466,7 @@
         <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="2">
         <v>43868</v>
@@ -3471,73 +3480,70 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>152</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43868</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="2">
-        <v>43411</v>
+        <v>116</v>
       </c>
       <c r="E32" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="2">
-        <v>43405</v>
-      </c>
-      <c r="E34" s="3">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>72</v>
+        <v>118</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,16 +3551,19 @@
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>32</v>
+        <v>119</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43405</v>
+      </c>
+      <c r="E35" s="3">
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,64 +3571,61 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
       <c r="C37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43580</v>
+        <v>132</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2">
-        <v>43565</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
+        <v>43580</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2">
-        <v>43409</v>
+        <v>43565</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3627,10 +3633,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43409</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -3643,8 +3652,11 @@
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
       <c r="C41" t="s">
-        <v>429</v>
+        <v>135</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3658,78 +3670,78 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>430</v>
-      </c>
-      <c r="D42" s="2">
-        <v>44104</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>32</v>
+        <v>429</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>53</v>
+        <v>430</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="2">
-        <v>43403</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="2">
-        <v>43588</v>
+        <v>43403</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="2">
-        <v>43656</v>
+        <v>43588</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>32</v>
@@ -3740,13 +3752,13 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="2">
-        <v>43592</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+        <v>43656</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3754,13 +3766,13 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2">
-        <v>43739</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>32</v>
+        <v>43592</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,64 +3780,61 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>436</v>
+        <v>141</v>
       </c>
       <c r="D49" s="2">
-        <v>44104</v>
+        <v>43739</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F49" t="s">
-        <v>437</v>
-      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>436</v>
       </c>
       <c r="D50" s="2">
-        <v>43656</v>
+        <v>44104</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2">
-        <v>43592</v>
-      </c>
-      <c r="E51" s="3">
-        <v>4</v>
+        <v>43656</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>431</v>
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>432</v>
+        <v>143</v>
       </c>
       <c r="D52" s="2">
-        <v>44104</v>
+        <v>43592</v>
       </c>
       <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,50 +3842,50 @@
         <v>431</v>
       </c>
       <c r="C53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D53" s="2">
         <v>44104</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>32</v>
+      <c r="E53" s="3">
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
       <c r="C55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="2">
-        <v>43868</v>
+        <v>144</v>
       </c>
       <c r="E55" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,7 +3893,7 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56" s="2">
         <v>43868</v>
@@ -3901,7 +3910,7 @@
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" s="2">
         <v>43868</v>
@@ -3915,19 +3924,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>438</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>439</v>
+        <v>158</v>
       </c>
       <c r="D58" s="2">
-        <v>44089</v>
-      </c>
-      <c r="E58" t="s">
-        <v>32</v>
+        <v>43868</v>
+      </c>
+      <c r="E58" s="3">
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,37 +3944,54 @@
         <v>438</v>
       </c>
       <c r="C59" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44089</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" t="s">
         <v>440</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D60" s="2">
         <v>44104</v>
       </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F59">
-    <sortCondition ref="C2:C59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
+    <sortCondition ref="C2:C60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3975,7 +4001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB3469-65F3-498A-B152-2C62F11F4B84}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:H84"/>
     </sheetView>
   </sheetViews>
